--- a/discrete_results/results.xlsx
+++ b/discrete_results/results.xlsx
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>67.979797979798</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>69.39999999999998</v>
+        <v>94.17171717171719</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>165.4185858585858</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>129.12141414141405</v>
+        <v>138.3838383838384</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>50.68434343434336</v>
+        <v>117.24999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>106.92949494949494</v>
+        <v>141.98000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.0</v>
+        <v>61.60999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0.0</v>
+        <v>9.649999999999977</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>52.121212121212146</v>
+        <v>52.12121212121214</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>16.363636363636353</v>
+        <v>16.363636363636346</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="F50">
-        <v>6122.150603015053</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="F53">
-        <v>0.0</v>
+        <v>66.56565656565655</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>0.0</v>
+        <v>35.05050505050504</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="F55">
-        <v>23.137474747474812</v>
+        <v>84.74747474747473</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="F56">
-        <v>39.599999999999966</v>
+        <v>49.15349999999995</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>6372.879396984902</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0.0</v>
+        <v>26.363636363636388</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>20.80808080808083</v>
+        <v>89.47454341393741</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0.0</v>
+        <v>25.021936537088095</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>27.417676767676795</v>
+        <v>27.41767676767678</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>126.48747474747483</v>
+        <v>126.48747474747482</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="F98">
-        <v>501.97</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="F99">
-        <v>314.14141414141415</v>
+        <v>229.55999999999995</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="F100">
-        <v>205.85858585858585</v>
+        <v>196.5961616161615</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>3</v>
       </c>
       <c r="F101">
-        <v>316.5656565656566</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="F102">
-        <v>285.0505050505051</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="F103">
-        <v>311.60999999999996</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="F104">
-        <v>259.65</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>3</v>
       </c>
       <c r="F106">
-        <v>54.23878787878784</v>
+        <v>54.238787878787846</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="F122">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>317.97979797979804</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>274.7717171717172</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3416,7 +3416,7 @@
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0.0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0.0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0.0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0.0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>0.0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>0.0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0.0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0.0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0.0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0.0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0.0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>0.0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>0.0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0.0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0.0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>0.0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0.0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0.0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0.0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0.0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0.0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>0.0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0.0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0.0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0.0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>0.0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0.0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>0.0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>0.0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4300,7 +4300,7 @@
         <v>0.0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0.0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>0.0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4378,7 +4378,7 @@
         <v>0.0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0.0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>0.0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0.0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0.0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0.0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>0.0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>0.0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0.0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4612,7 +4612,7 @@
         <v>0.0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0.0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0.0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4687,10 +4687,10 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <v>76.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>12</v>
       </c>
       <c r="F52">
-        <v>9.17</v>
+        <v>0.0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4739,13 +4739,13 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <v>76.0</v>
+        <v>67.69</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4765,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="F54">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="F73">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -5288,7 +5288,7 @@
         <v>0.0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0.0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5340,7 +5340,7 @@
         <v>0.0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5389,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="F78">
-        <v>76.0</v>
+        <v>30.0</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="F79">
-        <v>76.0</v>
+        <v>55.55</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -5883,10 +5883,10 @@
         <v>12</v>
       </c>
       <c r="F97">
-        <v>73.78</v>
+        <v>0.0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0.0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0.0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5964,7 +5964,7 @@
         <v>0.0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5990,7 +5990,7 @@
         <v>0.0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -6016,7 +6016,7 @@
         <v>0.0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0.0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>0.0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0.0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0.0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>0.0</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6172,7 +6172,7 @@
         <v>0.0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0.0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0.0</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>0.0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0.0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>0.0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -6328,7 +6328,7 @@
         <v>0.0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -6354,7 +6354,7 @@
         <v>0.0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0.0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -6406,7 +6406,7 @@
         <v>0.0</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>0.0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0.0</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>0.0</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -6510,7 +6510,7 @@
         <v>0.0</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -6536,7 +6536,7 @@
         <v>0.0</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0.0</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>0.0</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -6614,7 +6614,7 @@
         <v>0.0</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>0.0</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -6666,7 +6666,7 @@
         <v>0.0</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0.0</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0.0</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0.0</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -6770,7 +6770,7 @@
         <v>0.0</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -6796,7 +6796,7 @@
         <v>0.0</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.0</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0.0</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>0.0</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6900,7 +6900,7 @@
         <v>0.0</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>0.0</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>0.0</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0.0</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -7004,7 +7004,7 @@
         <v>0.0</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>0.0</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>0.0</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0.0</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>0.0</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>0.0</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0.0</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -7183,10 +7183,10 @@
         <v>12</v>
       </c>
       <c r="F147">
-        <v>33.84</v>
+        <v>0.0</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -7212,7 +7212,7 @@
         <v>0.0</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -7235,13 +7235,13 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>21.02</v>
+        <v>76.0</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7261,7 +7261,7 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>36.74</v>
+        <v>53.09</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -7287,7 +7287,7 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>54.94</v>
+        <v>76.0</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -7758,7 +7758,7 @@
         <v>0.0</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>0.0</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -7810,7 +7810,7 @@
         <v>0.0</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -7836,7 +7836,7 @@
         <v>0.0</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -7859,13 +7859,13 @@
         <v>12</v>
       </c>
       <c r="F173">
-        <v>76.0</v>
+        <v>30.0</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7885,7 +7885,7 @@
         <v>12</v>
       </c>
       <c r="F174">
-        <v>76.0</v>
+        <v>30.0</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -8379,7 +8379,7 @@
         <v>12</v>
       </c>
       <c r="F193">
-        <v>76.0</v>
+        <v>73.78</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -8408,7 +8408,7 @@
         <v>0.0</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0.0</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>0.0</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -8486,7 +8486,7 @@
         <v>0.0</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0.0</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0.0</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -8564,7 +8564,7 @@
         <v>0.0</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>0.0</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>0.0</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -8642,7 +8642,7 @@
         <v>0.0</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -8668,7 +8668,7 @@
         <v>0.0</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0.0</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -8720,7 +8720,7 @@
         <v>0.0</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -8746,7 +8746,7 @@
         <v>0.0</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0.0</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0.0</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -8824,7 +8824,7 @@
         <v>0.0</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>0.0</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0.0</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0.0</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -8928,7 +8928,7 @@
         <v>0.0</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -8954,7 +8954,7 @@
         <v>0.0</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -8980,7 +8980,7 @@
         <v>0.0</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0.0</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -9032,7 +9032,7 @@
         <v>0.0</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0.0</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0.0</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>0.0</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0.0</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>0.0</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>0.0</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -9214,7 +9214,7 @@
         <v>0.0</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0.0</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0.0</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -9292,7 +9292,7 @@
         <v>0.0</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0.0</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>0.0</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -9370,7 +9370,7 @@
         <v>0.0</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>0.0</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0.0</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>0.0</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0.0</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0.0</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -9526,7 +9526,7 @@
         <v>0.0</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0.0</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -9578,7 +9578,7 @@
         <v>0.0</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -9604,7 +9604,7 @@
         <v>0.0</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -9630,7 +9630,7 @@
         <v>0.0</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -14255,7 +14255,7 @@
         <v>14</v>
       </c>
       <c r="F419">
-        <v>0.0</v>
+        <v>11.52</v>
       </c>
       <c r="G419">
         <v>1</v>
@@ -14307,7 +14307,7 @@
         <v>14</v>
       </c>
       <c r="F421">
-        <v>11.52</v>
+        <v>0.0</v>
       </c>
       <c r="G421">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>14</v>
       </c>
       <c r="F425">
-        <v>17.28</v>
+        <v>0.0</v>
       </c>
       <c r="G425">
         <v>1</v>
@@ -14463,7 +14463,7 @@
         <v>14</v>
       </c>
       <c r="F427">
-        <v>0.0</v>
+        <v>17.28</v>
       </c>
       <c r="G427">
         <v>1</v>
@@ -15503,7 +15503,7 @@
         <v>14</v>
       </c>
       <c r="F467">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G467">
         <v>1</v>
@@ -15555,7 +15555,7 @@
         <v>14</v>
       </c>
       <c r="F469">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="G469">
         <v>1</v>
@@ -15659,7 +15659,7 @@
         <v>14</v>
       </c>
       <c r="F473">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="G473">
         <v>1</v>
@@ -15711,7 +15711,7 @@
         <v>14</v>
       </c>
       <c r="F475">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="G475">
         <v>1</v>
@@ -16127,7 +16127,7 @@
         <v>14</v>
       </c>
       <c r="F491">
-        <v>0.0</v>
+        <v>3.54</v>
       </c>
       <c r="G491">
         <v>1</v>
@@ -16153,7 +16153,7 @@
         <v>14</v>
       </c>
       <c r="F492">
-        <v>7.83</v>
+        <v>5.33</v>
       </c>
       <c r="G492">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>14</v>
       </c>
       <c r="F493">
-        <v>0.0</v>
+        <v>38.51</v>
       </c>
       <c r="G493">
         <v>1</v>
@@ -16205,7 +16205,7 @@
         <v>14</v>
       </c>
       <c r="F494">
-        <v>0.0</v>
+        <v>4.14</v>
       </c>
       <c r="G494">
         <v>1</v>
@@ -16257,7 +16257,7 @@
         <v>14</v>
       </c>
       <c r="F496">
-        <v>93.1</v>
+        <v>91.28</v>
       </c>
       <c r="G496">
         <v>1</v>
@@ -16283,7 +16283,7 @@
         <v>14</v>
       </c>
       <c r="F497">
-        <v>71.38</v>
+        <v>115.91</v>
       </c>
       <c r="G497">
         <v>1</v>
@@ -16309,7 +16309,7 @@
         <v>14</v>
       </c>
       <c r="F498">
-        <v>123.98</v>
+        <v>79.65</v>
       </c>
       <c r="G498">
         <v>1</v>
@@ -16335,7 +16335,7 @@
         <v>14</v>
       </c>
       <c r="F499">
-        <v>0.0</v>
+        <v>28.78</v>
       </c>
       <c r="G499">
         <v>1</v>
@@ -16673,7 +16673,7 @@
         <v>14</v>
       </c>
       <c r="F512">
-        <v>3.61</v>
+        <v>0.0</v>
       </c>
       <c r="G512">
         <v>1</v>
@@ -16699,7 +16699,7 @@
         <v>14</v>
       </c>
       <c r="F513">
-        <v>0.0</v>
+        <v>32.84</v>
       </c>
       <c r="G513">
         <v>1</v>
@@ -17011,7 +17011,7 @@
         <v>14</v>
       </c>
       <c r="F525">
-        <v>45.0</v>
+        <v>15.77</v>
       </c>
       <c r="G525">
         <v>1</v>
@@ -17947,7 +17947,7 @@
         <v>14</v>
       </c>
       <c r="F561">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="G561">
         <v>1</v>
@@ -18077,7 +18077,7 @@
         <v>14</v>
       </c>
       <c r="F566">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="G566">
         <v>1</v>
@@ -18181,7 +18181,7 @@
         <v>14</v>
       </c>
       <c r="F570">
-        <v>17.37</v>
+        <v>20.0</v>
       </c>
       <c r="G570">
         <v>1</v>
@@ -18207,7 +18207,7 @@
         <v>14</v>
       </c>
       <c r="F571">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="G571">
         <v>1</v>
@@ -18259,7 +18259,7 @@
         <v>14</v>
       </c>
       <c r="F573">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="G573">
         <v>1</v>
@@ -18285,7 +18285,7 @@
         <v>14</v>
       </c>
       <c r="F574">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="G574">
         <v>1</v>
@@ -18415,7 +18415,7 @@
         <v>14</v>
       </c>
       <c r="F579">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G579">
         <v>1</v>
@@ -21093,7 +21093,7 @@
         <v>14</v>
       </c>
       <c r="F682">
-        <v>0.0</v>
+        <v>32.5</v>
       </c>
       <c r="G682">
         <v>1</v>
@@ -21119,7 +21119,7 @@
         <v>14</v>
       </c>
       <c r="F683">
-        <v>66.7</v>
+        <v>0.0</v>
       </c>
       <c r="G683">
         <v>1</v>
@@ -21171,7 +21171,7 @@
         <v>14</v>
       </c>
       <c r="F685">
-        <v>66.7</v>
+        <v>0.0</v>
       </c>
       <c r="G685">
         <v>1</v>
@@ -21301,7 +21301,7 @@
         <v>14</v>
       </c>
       <c r="F690">
-        <v>0.0</v>
+        <v>66.7</v>
       </c>
       <c r="G690">
         <v>1</v>
@@ -21327,7 +21327,7 @@
         <v>14</v>
       </c>
       <c r="F691">
-        <v>66.7</v>
+        <v>0.0</v>
       </c>
       <c r="G691">
         <v>1</v>
@@ -21405,7 +21405,7 @@
         <v>14</v>
       </c>
       <c r="F694">
-        <v>0.0</v>
+        <v>66.7</v>
       </c>
       <c r="G694">
         <v>1</v>
@@ -21431,7 +21431,7 @@
         <v>14</v>
       </c>
       <c r="F695">
-        <v>0.0</v>
+        <v>66.7</v>
       </c>
       <c r="G695">
         <v>1</v>
@@ -22289,7 +22289,7 @@
         <v>14</v>
       </c>
       <c r="F728">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G728">
         <v>1</v>
@@ -22315,7 +22315,7 @@
         <v>14</v>
       </c>
       <c r="F729">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G729">
         <v>1</v>
@@ -22549,7 +22549,7 @@
         <v>14</v>
       </c>
       <c r="F738">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="G738">
         <v>1</v>
@@ -22627,7 +22627,7 @@
         <v>14</v>
       </c>
       <c r="F741">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="G741">
         <v>1</v>
@@ -22679,7 +22679,7 @@
         <v>14</v>
       </c>
       <c r="F743">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G743">
         <v>1</v>
@@ -22705,7 +22705,7 @@
         <v>14</v>
       </c>
       <c r="F744">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G744">
         <v>1</v>
@@ -22913,7 +22913,7 @@
         <v>14</v>
       </c>
       <c r="F752">
-        <v>15.94</v>
+        <v>4.71</v>
       </c>
       <c r="G752">
         <v>1</v>
@@ -22939,7 +22939,7 @@
         <v>14</v>
       </c>
       <c r="F753">
-        <v>15.94</v>
+        <v>0.0</v>
       </c>
       <c r="G753">
         <v>1</v>
@@ -23225,7 +23225,7 @@
         <v>14</v>
       </c>
       <c r="F764">
-        <v>31.71</v>
+        <v>15.94</v>
       </c>
       <c r="G764">
         <v>1</v>
@@ -23251,7 +23251,7 @@
         <v>14</v>
       </c>
       <c r="F765">
-        <v>31.71</v>
+        <v>15.94</v>
       </c>
       <c r="G765">
         <v>1</v>
@@ -23277,7 +23277,7 @@
         <v>14</v>
       </c>
       <c r="F766">
-        <v>31.71</v>
+        <v>15.94</v>
       </c>
       <c r="G766">
         <v>1</v>
@@ -23303,7 +23303,7 @@
         <v>14</v>
       </c>
       <c r="F767">
-        <v>31.71</v>
+        <v>6.38</v>
       </c>
       <c r="G767">
         <v>1</v>
@@ -23407,7 +23407,7 @@
         <v>14</v>
       </c>
       <c r="F771">
-        <v>0.0</v>
+        <v>38.1</v>
       </c>
       <c r="G771">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>14</v>
       </c>
       <c r="F772">
-        <v>0.0</v>
+        <v>9.17</v>
       </c>
       <c r="G772">
         <v>1</v>
@@ -23537,7 +23537,7 @@
         <v>14</v>
       </c>
       <c r="F776">
-        <v>8.3</v>
+        <v>0.0</v>
       </c>
       <c r="G776">
         <v>1</v>
@@ -23563,7 +23563,7 @@
         <v>14</v>
       </c>
       <c r="F777">
-        <v>19.4</v>
+        <v>0.0</v>
       </c>
       <c r="G777">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         <v>14</v>
       </c>
       <c r="F778">
-        <v>72.5</v>
+        <v>0.0</v>
       </c>
       <c r="G778">
         <v>1</v>
@@ -23615,7 +23615,7 @@
         <v>14</v>
       </c>
       <c r="F779">
-        <v>143.87</v>
+        <v>175.01</v>
       </c>
       <c r="G779">
         <v>1</v>
@@ -23667,7 +23667,7 @@
         <v>14</v>
       </c>
       <c r="F781">
-        <v>79.8</v>
+        <v>175.01</v>
       </c>
       <c r="G781">
         <v>1</v>
@@ -23693,7 +23693,7 @@
         <v>14</v>
       </c>
       <c r="F782">
-        <v>161.65</v>
+        <v>175.01</v>
       </c>
       <c r="G782">
         <v>1</v>
@@ -23823,7 +23823,7 @@
         <v>14</v>
       </c>
       <c r="F787">
-        <v>161.37</v>
+        <v>175.01</v>
       </c>
       <c r="G787">
         <v>1</v>
@@ -23849,7 +23849,7 @@
         <v>14</v>
       </c>
       <c r="F788">
-        <v>43.81</v>
+        <v>57.09</v>
       </c>
       <c r="G788">
         <v>1</v>
@@ -23875,7 +23875,7 @@
         <v>14</v>
       </c>
       <c r="F789">
-        <v>8.6</v>
+        <v>56.1</v>
       </c>
       <c r="G789">
         <v>1</v>
@@ -23901,7 +23901,7 @@
         <v>14</v>
       </c>
       <c r="F790">
-        <v>116.91</v>
+        <v>3.49</v>
       </c>
       <c r="G790">
         <v>1</v>
@@ -23927,7 +23927,7 @@
         <v>14</v>
       </c>
       <c r="F791">
-        <v>67.37</v>
+        <v>0.0</v>
       </c>
       <c r="G791">
         <v>1</v>
@@ -23953,7 +23953,7 @@
         <v>14</v>
       </c>
       <c r="F792">
-        <v>115.76</v>
+        <v>90.76</v>
       </c>
       <c r="G792">
         <v>1</v>
@@ -24031,7 +24031,7 @@
         <v>14</v>
       </c>
       <c r="F795">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="G795">
         <v>1</v>
@@ -24213,7 +24213,7 @@
         <v>14</v>
       </c>
       <c r="F802">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="G802">
         <v>1</v>
@@ -24291,7 +24291,7 @@
         <v>14</v>
       </c>
       <c r="F805">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="G805">
         <v>1</v>
@@ -24525,7 +24525,7 @@
         <v>14</v>
       </c>
       <c r="F814">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="G814">
         <v>1</v>
@@ -24655,7 +24655,7 @@
         <v>14</v>
       </c>
       <c r="F819">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G819">
         <v>1</v>
@@ -25409,7 +25409,7 @@
         <v>14</v>
       </c>
       <c r="F848">
-        <v>2.5</v>
+        <v>0.74</v>
       </c>
       <c r="G848">
         <v>1</v>
@@ -25435,7 +25435,7 @@
         <v>14</v>
       </c>
       <c r="F849">
-        <v>2.5</v>
+        <v>0.0</v>
       </c>
       <c r="G849">
         <v>1</v>
@@ -25487,7 +25487,7 @@
         <v>14</v>
       </c>
       <c r="F851">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G851">
         <v>1</v>
@@ -25513,7 +25513,7 @@
         <v>14</v>
       </c>
       <c r="F852">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G852">
         <v>1</v>
@@ -25539,7 +25539,7 @@
         <v>14</v>
       </c>
       <c r="F853">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G853">
         <v>1</v>
@@ -25565,7 +25565,7 @@
         <v>14</v>
       </c>
       <c r="F854">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G854">
         <v>1</v>
@@ -25617,7 +25617,7 @@
         <v>14</v>
       </c>
       <c r="F856">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G856">
         <v>1</v>
@@ -25721,7 +25721,7 @@
         <v>14</v>
       </c>
       <c r="F860">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G860">
         <v>1</v>
@@ -25747,7 +25747,7 @@
         <v>14</v>
       </c>
       <c r="F861">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G861">
         <v>1</v>
@@ -25773,7 +25773,7 @@
         <v>14</v>
       </c>
       <c r="F862">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="G862">
         <v>1</v>
@@ -25799,7 +25799,7 @@
         <v>14</v>
       </c>
       <c r="F863">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G863">
         <v>1</v>
@@ -28262,7 +28262,7 @@
         <v>0.0</v>
       </c>
       <c r="F26">
-        <v>0.0</v>
+        <v>118.78999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -29432,7 +29432,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="E8">
         <v>0.0</v>
@@ -29441,10 +29441,10 @@
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="H8">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="I8">
         <v>0.0</v>
@@ -29467,13 +29467,13 @@
         <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="I9">
         <v>0.0</v>
@@ -29519,19 +29519,19 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>85.78110744983708</v>
       </c>
       <c r="E11">
-        <v>82.78</v>
+        <v>0.0</v>
       </c>
       <c r="F11">
         <v>0.0</v>
       </c>
       <c r="G11">
-        <v>82.78</v>
+        <v>85.78110744983708</v>
       </c>
       <c r="H11">
-        <v>82.78</v>
+        <v>85.78110744983708</v>
       </c>
       <c r="I11">
         <v>0.0</v>
@@ -29548,19 +29548,19 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>89.410176254414</v>
+        <v>0.0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>87.29389576660911</v>
       </c>
       <c r="F12">
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>89.410176254414</v>
+        <v>87.29389576660911</v>
       </c>
       <c r="H12">
-        <v>89.410176254414</v>
+        <v>87.29389576660911</v>
       </c>
       <c r="I12">
         <v>0.0</v>
@@ -29583,13 +29583,13 @@
         <v>0.0</v>
       </c>
       <c r="F13">
-        <v>82.78</v>
+        <v>115.39338103254761</v>
       </c>
       <c r="G13">
-        <v>82.78</v>
+        <v>115.39338103254761</v>
       </c>
       <c r="H13">
-        <v>82.78</v>
+        <v>115.39338103254761</v>
       </c>
       <c r="I13">
         <v>0.0</v>
@@ -29612,13 +29612,13 @@
         <v>0.0</v>
       </c>
       <c r="F14">
-        <v>82.78</v>
+        <v>86.28803991815172</v>
       </c>
       <c r="G14">
-        <v>82.78</v>
+        <v>86.28803991815172</v>
       </c>
       <c r="H14">
-        <v>82.78</v>
+        <v>86.28803991815172</v>
       </c>
       <c r="I14">
         <v>0.0</v>
@@ -29635,10 +29635,10 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>83.27066334072428</v>
       </c>
       <c r="E15">
-        <v>83.27066334072428</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
         <v>0.0</v>
@@ -29664,7 +29664,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>161.62110669705186</v>
+        <v>160.0863511296895</v>
       </c>
       <c r="E16">
         <v>0.0</v>
@@ -29673,10 +29673,10 @@
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>161.62110669705186</v>
+        <v>160.0863511296895</v>
       </c>
       <c r="H16">
-        <v>161.62110669705186</v>
+        <v>160.0863511296895</v>
       </c>
       <c r="I16">
         <v>0.0</v>
@@ -29693,19 +29693,19 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>143.230976602064</v>
+        <v>0.0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>180.94288324617887</v>
       </c>
       <c r="F17">
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>143.230976602064</v>
+        <v>180.94288324617887</v>
       </c>
       <c r="H17">
-        <v>143.230976602064</v>
+        <v>180.94288324617887</v>
       </c>
       <c r="I17">
         <v>0.0</v>
@@ -29722,19 +29722,19 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
+        <v>150.23614536284242</v>
       </c>
       <c r="E18">
         <v>0.0</v>
       </c>
       <c r="F18">
-        <v>187.77661246612467</v>
+        <v>0.0</v>
       </c>
       <c r="G18">
-        <v>187.77661246612467</v>
+        <v>150.23614536284242</v>
       </c>
       <c r="H18">
-        <v>187.77661246612467</v>
+        <v>150.23614536284242</v>
       </c>
       <c r="I18">
         <v>0.0</v>
@@ -29751,19 +29751,19 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>82.78</v>
+        <v>0.0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>107.15240853658541</v>
       </c>
       <c r="F19">
         <v>0.0</v>
       </c>
       <c r="G19">
-        <v>82.78</v>
+        <v>107.15240853658541</v>
       </c>
       <c r="H19">
-        <v>82.78</v>
+        <v>107.15240853658541</v>
       </c>
       <c r="I19">
         <v>0.0</v>
@@ -29815,13 +29815,13 @@
         <v>0.0</v>
       </c>
       <c r="F21">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="G21">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="H21">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="I21">
         <v>0.0</v>
@@ -29957,7 +29957,7 @@
         <v>0.0</v>
       </c>
       <c r="E26">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="F26">
         <v>0.0</v>
@@ -30827,7 +30827,7 @@
         <v>0.0</v>
       </c>
       <c r="E56">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="F56">
         <v>0.0</v>
@@ -30836,10 +30836,10 @@
         <v>0.0</v>
       </c>
       <c r="H56">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="I56">
-        <v>493.3599999999998</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -30856,7 +30856,7 @@
         <v>0.0</v>
       </c>
       <c r="E57">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="F57">
         <v>0.0</v>
@@ -30865,10 +30865,10 @@
         <v>0.0</v>
       </c>
       <c r="H57">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="I57">
-        <v>493.3599999999998</v>
+        <v>439.5958057395143</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -30897,7 +30897,7 @@
         <v>0.0</v>
       </c>
       <c r="I58">
-        <v>493.3599999999998</v>
+        <v>439.5958057395143</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -30920,13 +30920,13 @@
         <v>0.0</v>
       </c>
       <c r="G59">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="H59">
         <v>82.78</v>
       </c>
       <c r="I59">
-        <v>410.5799999999998</v>
+        <v>406.8158057395143</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -30955,7 +30955,7 @@
         <v>82.78</v>
       </c>
       <c r="I60">
-        <v>402.79999999999984</v>
+        <v>399.03580573951433</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -30978,13 +30978,13 @@
         <v>0.0</v>
       </c>
       <c r="G61">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="H61">
         <v>82.78</v>
       </c>
       <c r="I61">
-        <v>370.01999999999987</v>
+        <v>316.25580573951436</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -31013,7 +31013,7 @@
         <v>82.78</v>
       </c>
       <c r="I62">
-        <v>362.2399999999999</v>
+        <v>308.4758057395144</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -31042,7 +31042,7 @@
         <v>82.78</v>
       </c>
       <c r="I63">
-        <v>354.4599999999999</v>
+        <v>300.6958057395144</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -31071,7 +31071,7 @@
         <v>82.78</v>
       </c>
       <c r="I64">
-        <v>346.67999999999995</v>
+        <v>292.91580573951444</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -31094,13 +31094,13 @@
         <v>0.0</v>
       </c>
       <c r="G65">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="H65">
         <v>82.78</v>
       </c>
       <c r="I65">
-        <v>338.9</v>
+        <v>210.13580573951444</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -31129,7 +31129,7 @@
         <v>82.78</v>
       </c>
       <c r="I66">
-        <v>331.12</v>
+        <v>202.35580573951444</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -31152,13 +31152,13 @@
         <v>0.0</v>
       </c>
       <c r="G67">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="H67">
         <v>82.78</v>
       </c>
       <c r="I67">
-        <v>248.34</v>
+        <v>194.57580573951444</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -31187,7 +31187,7 @@
         <v>0.0</v>
       </c>
       <c r="I68">
-        <v>248.34</v>
+        <v>194.57580573951444</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -31204,7 +31204,7 @@
         <v>0.0</v>
       </c>
       <c r="E69">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="F69">
         <v>0.0</v>
@@ -31213,7 +31213,7 @@
         <v>0.0</v>
       </c>
       <c r="H69">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="I69">
         <v>165.56</v>
@@ -31607,7 +31607,7 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E83">
         <v>0.0</v>
@@ -31616,10 +31616,10 @@
         <v>0.0</v>
       </c>
       <c r="G83">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="H83">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="I83">
         <v>0.0</v>
@@ -31665,7 +31665,7 @@
         <v>12</v>
       </c>
       <c r="D85">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="E85">
         <v>0.0</v>
@@ -31674,10 +31674,10 @@
         <v>0.0</v>
       </c>
       <c r="G85">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="H85">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="I85">
         <v>0.0</v>
@@ -31781,7 +31781,7 @@
         <v>16</v>
       </c>
       <c r="D89">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="E89">
         <v>0.0</v>
@@ -31790,10 +31790,10 @@
         <v>0.0</v>
       </c>
       <c r="G89">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="H89">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="I89">
         <v>0.0</v>
@@ -31839,7 +31839,7 @@
         <v>18</v>
       </c>
       <c r="D91">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="E91">
         <v>0.0</v>
@@ -31848,10 +31848,10 @@
         <v>0.0</v>
       </c>
       <c r="G91">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="H91">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="I91">
         <v>0.0</v>
@@ -32999,7 +32999,7 @@
         <v>10</v>
       </c>
       <c r="D131">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E131">
         <v>0.0</v>
@@ -33011,10 +33011,10 @@
         <v>0.0</v>
       </c>
       <c r="H131">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="I131">
-        <v>500.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -33043,7 +33043,7 @@
         <v>75.0</v>
       </c>
       <c r="I132">
-        <v>425.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -33057,7 +33057,7 @@
         <v>12</v>
       </c>
       <c r="D133">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="E133">
         <v>0.0</v>
@@ -33069,7 +33069,7 @@
         <v>0.0</v>
       </c>
       <c r="H133">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="I133">
         <v>375.0</v>
@@ -33173,7 +33173,7 @@
         <v>16</v>
       </c>
       <c r="D137">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="E137">
         <v>0.0</v>
@@ -33185,10 +33185,10 @@
         <v>0.0</v>
       </c>
       <c r="H137">
-        <v>75.0</v>
+        <v>0.0</v>
       </c>
       <c r="I137">
-        <v>75.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -33217,7 +33217,7 @@
         <v>75.0</v>
       </c>
       <c r="I138">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -33231,7 +33231,7 @@
         <v>18</v>
       </c>
       <c r="D139">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="E139">
         <v>0.0</v>
@@ -33243,7 +33243,7 @@
         <v>0.0</v>
       </c>
       <c r="H139">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
       <c r="I139">
         <v>0.0</v>
@@ -33646,13 +33646,13 @@
         <v>0.0</v>
       </c>
       <c r="G153">
-        <v>93.2468302068302</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="H153">
         <v>0.0</v>
       </c>
       <c r="I153">
-        <v>174818.24683020683</v>
+        <v>174805.20683020682</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -33675,13 +33675,13 @@
         <v>0.0</v>
       </c>
       <c r="G154">
-        <v>0.0</v>
+        <v>39.08596921596924</v>
       </c>
       <c r="H154">
         <v>0.0</v>
       </c>
       <c r="I154">
-        <v>174818.24683020683</v>
+        <v>174844.29279942278</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -33695,7 +33695,7 @@
         <v>10</v>
       </c>
       <c r="D155">
-        <v>0.0</v>
+        <v>3.0011074498370744</v>
       </c>
       <c r="E155">
         <v>0.0</v>
@@ -33704,13 +33704,13 @@
         <v>0.0</v>
       </c>
       <c r="G155">
-        <v>80.2068302068302</v>
+        <v>0.0</v>
       </c>
       <c r="H155">
-        <v>0.0</v>
+        <v>3.0011074498370744</v>
       </c>
       <c r="I155">
-        <v>174898.45366041365</v>
+        <v>174841.29169197293</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -33724,7 +33724,7 @@
         <v>11</v>
       </c>
       <c r="D156">
-        <v>6.630176254413993</v>
+        <v>4.513895766609106</v>
       </c>
       <c r="E156">
         <v>0.0</v>
@@ -33736,10 +33736,10 @@
         <v>93.2468302068302</v>
       </c>
       <c r="H156">
-        <v>6.630176254413993</v>
+        <v>4.513895766609106</v>
       </c>
       <c r="I156">
-        <v>174985.07031436608</v>
+        <v>174930.02462641316</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -33753,7 +33753,7 @@
         <v>12</v>
       </c>
       <c r="D157">
-        <v>0.0</v>
+        <v>32.61338103254761</v>
       </c>
       <c r="E157">
         <v>0.0</v>
@@ -33762,13 +33762,13 @@
         <v>0.0</v>
       </c>
       <c r="G157">
-        <v>80.2068302068302</v>
+        <v>9350.0</v>
       </c>
       <c r="H157">
-        <v>0.0</v>
+        <v>32.61338103254761</v>
       </c>
       <c r="I157">
-        <v>175065.2771445729</v>
+        <v>184247.41124538062</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -33782,7 +33782,7 @@
         <v>13</v>
       </c>
       <c r="D158">
-        <v>0.0</v>
+        <v>3.508039918151727</v>
       </c>
       <c r="E158">
         <v>0.0</v>
@@ -33791,13 +33791,13 @@
         <v>0.0</v>
       </c>
       <c r="G158">
-        <v>93.2468302068302</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="H158">
-        <v>0.0</v>
+        <v>3.508039918151727</v>
       </c>
       <c r="I158">
-        <v>175158.52397477973</v>
+        <v>184324.1100356693</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -33826,7 +33826,7 @@
         <v>0.4906633407242831</v>
       </c>
       <c r="I159">
-        <v>175158.033311439</v>
+        <v>184323.61937232857</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -33840,7 +33840,7 @@
         <v>15</v>
       </c>
       <c r="D160">
-        <v>78.84110669705187</v>
+        <v>77.30635112968949</v>
       </c>
       <c r="E160">
         <v>0.0</v>
@@ -33849,13 +33849,13 @@
         <v>0.0</v>
       </c>
       <c r="G160">
-        <v>9443.246830206832</v>
+        <v>93.2468302068302</v>
       </c>
       <c r="H160">
-        <v>78.84110669705187</v>
+        <v>77.30635112968949</v>
       </c>
       <c r="I160">
-        <v>184522.4390349488</v>
+        <v>184339.5598514057</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -33869,7 +33869,7 @@
         <v>16</v>
       </c>
       <c r="D161">
-        <v>60.45097660206399</v>
+        <v>98.16288324617886</v>
       </c>
       <c r="E161">
         <v>0.0</v>
@@ -33881,10 +33881,10 @@
         <v>93.2468302068302</v>
       </c>
       <c r="H161">
-        <v>60.45097660206399</v>
+        <v>98.16288324617886</v>
       </c>
       <c r="I161">
-        <v>184555.23488855356</v>
+        <v>184334.64379836636</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -33898,7 +33898,7 @@
         <v>17</v>
       </c>
       <c r="D162">
-        <v>104.99661246612466</v>
+        <v>67.45614536284243</v>
       </c>
       <c r="E162">
         <v>0.0</v>
@@ -33907,13 +33907,13 @@
         <v>0.0</v>
       </c>
       <c r="G162">
-        <v>11.327193821364332</v>
+        <v>93.2468302068302</v>
       </c>
       <c r="H162">
-        <v>104.99661246612466</v>
+        <v>67.45614536284243</v>
       </c>
       <c r="I162">
-        <v>184461.5654699088</v>
+        <v>184360.43448321035</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -33927,7 +33927,7 @@
         <v>18</v>
       </c>
       <c r="D163">
-        <v>0.0</v>
+        <v>24.372408536585414</v>
       </c>
       <c r="E163">
         <v>0.0</v>
@@ -33936,13 +33936,13 @@
         <v>0.0</v>
       </c>
       <c r="G163">
-        <v>93.2468302068302</v>
+        <v>0.0</v>
       </c>
       <c r="H163">
-        <v>0.0</v>
+        <v>24.372408536585414</v>
       </c>
       <c r="I163">
-        <v>184554.81230011562</v>
+        <v>184336.06207467377</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -33971,7 +33971,7 @@
         <v>0.0</v>
       </c>
       <c r="I164">
-        <v>184635.01913032244</v>
+        <v>184416.2689048806</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -33994,13 +33994,13 @@
         <v>0.0</v>
       </c>
       <c r="G165">
-        <v>80.2068302068302</v>
+        <v>93.2468302068302</v>
       </c>
       <c r="H165">
         <v>0.0</v>
       </c>
       <c r="I165">
-        <v>184715.22596052926</v>
+        <v>184509.51573508742</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -34023,13 +34023,13 @@
         <v>0.0</v>
       </c>
       <c r="G166">
-        <v>0.0</v>
+        <v>93.2468302068302</v>
       </c>
       <c r="H166">
         <v>0.0</v>
       </c>
       <c r="I166">
-        <v>184715.22596052926</v>
+        <v>184602.76256529425</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -34052,13 +34052,13 @@
         <v>0.0</v>
       </c>
       <c r="G167">
-        <v>13.04</v>
+        <v>93.2468302068302</v>
       </c>
       <c r="H167">
         <v>0.0</v>
       </c>
       <c r="I167">
-        <v>184728.26596052927</v>
+        <v>184696.00939550108</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -34087,7 +34087,7 @@
         <v>0.0</v>
       </c>
       <c r="I168">
-        <v>184808.4727907361</v>
+        <v>184776.2162257079</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -34116,7 +34116,7 @@
         <v>0.0</v>
       </c>
       <c r="I169">
-        <v>184808.4727907361</v>
+        <v>184776.2162257079</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -34133,7 +34133,7 @@
         <v>0.0</v>
       </c>
       <c r="E170">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="F170">
         <v>0.0</v>
@@ -34304,7 +34304,7 @@
         <v>7</v>
       </c>
       <c r="D176">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="E176">
         <v>0.0</v>
@@ -34313,10 +34313,10 @@
         <v>0.0</v>
       </c>
       <c r="G176">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="H176">
-        <v>6.640000000000214</v>
+        <v>0.0</v>
       </c>
       <c r="I176">
         <v>0.0</v>
@@ -34333,7 +34333,7 @@
         <v>8</v>
       </c>
       <c r="D177">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="E177">
         <v>0.0</v>
@@ -34342,10 +34342,10 @@
         <v>0.0</v>
       </c>
       <c r="G177">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="H177">
-        <v>0.0</v>
+        <v>60.40419426048575</v>
       </c>
       <c r="I177">
         <v>0.0</v>
@@ -34681,7 +34681,7 @@
         <v>20</v>
       </c>
       <c r="D189">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="E189">
         <v>0.0</v>
@@ -34690,10 +34690,10 @@
         <v>0.0</v>
       </c>
       <c r="G189">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="H189">
-        <v>82.78</v>
+        <v>29.015805739514434</v>
       </c>
       <c r="I189">
         <v>0.0</v>
@@ -35145,10 +35145,10 @@
         <v>12</v>
       </c>
       <c r="D205">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E205">
-        <v>0.0</v>
+        <v>9340.0</v>
       </c>
       <c r="F205">
         <v>0.0</v>
@@ -35157,10 +35157,10 @@
         <v>0.0</v>
       </c>
       <c r="H205">
-        <v>0.0</v>
+        <v>9350.0</v>
       </c>
       <c r="I205">
-        <v>9350.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -35189,7 +35189,7 @@
         <v>0.0</v>
       </c>
       <c r="I206">
-        <v>9350.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -35218,7 +35218,7 @@
         <v>0.0</v>
       </c>
       <c r="I207">
-        <v>9350.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -35232,10 +35232,10 @@
         <v>15</v>
       </c>
       <c r="D208">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E208">
-        <v>9340.0</v>
+        <v>0.0</v>
       </c>
       <c r="F208">
         <v>0.0</v>
@@ -35244,7 +35244,7 @@
         <v>0.0</v>
       </c>
       <c r="H208">
-        <v>9350.0</v>
+        <v>0.0</v>
       </c>
       <c r="I208">
         <v>0.0</v>
@@ -35560,13 +35560,13 @@
         <v>0.0</v>
       </c>
       <c r="G219">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="H219">
         <v>0.0</v>
       </c>
       <c r="I219">
-        <v>18500.0</v>
+        <v>18508.0</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -35589,13 +35589,13 @@
         <v>0.0</v>
       </c>
       <c r="G220">
-        <v>-3.183231456205249e-12</v>
+        <v>0.0</v>
       </c>
       <c r="H220">
         <v>0.0</v>
       </c>
       <c r="I220">
-        <v>18499.999999999996</v>
+        <v>18508.0</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -35624,7 +35624,7 @@
         <v>0.0</v>
       </c>
       <c r="I221">
-        <v>18499.999999999996</v>
+        <v>18508.0</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -35653,7 +35653,7 @@
         <v>0.0</v>
       </c>
       <c r="I222">
-        <v>18499.999999999996</v>
+        <v>18508.0</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -35682,7 +35682,7 @@
         <v>0.0</v>
       </c>
       <c r="I223">
-        <v>18499.999999999996</v>
+        <v>18508.0</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -35711,7 +35711,7 @@
         <v>0.0</v>
       </c>
       <c r="I224">
-        <v>18507.999999999996</v>
+        <v>18516.0</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -35725,7 +35725,7 @@
         <v>8</v>
       </c>
       <c r="D225">
-        <v>13.04</v>
+        <v>0.0</v>
       </c>
       <c r="E225">
         <v>0.0</v>
@@ -35734,13 +35734,13 @@
         <v>0.0</v>
       </c>
       <c r="G225">
-        <v>3008.000000000003</v>
+        <v>8.0</v>
       </c>
       <c r="H225">
-        <v>13.04</v>
+        <v>0.0</v>
       </c>
       <c r="I225">
-        <v>21502.96</v>
+        <v>18524.0</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -35763,13 +35763,13 @@
         <v>0.0</v>
       </c>
       <c r="G226">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="H226">
         <v>0.0</v>
       </c>
       <c r="I226">
-        <v>21502.96</v>
+        <v>21524.0</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -35798,7 +35798,7 @@
         <v>0.0</v>
       </c>
       <c r="I227">
-        <v>21510.96</v>
+        <v>21532.0</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -35827,7 +35827,7 @@
         <v>13.04</v>
       </c>
       <c r="I228">
-        <v>21505.92</v>
+        <v>21526.96</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -35856,7 +35856,7 @@
         <v>0.0</v>
       </c>
       <c r="I229">
-        <v>21513.92</v>
+        <v>21534.96</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -35870,7 +35870,7 @@
         <v>13</v>
       </c>
       <c r="D230">
-        <v>13.04</v>
+        <v>0.0</v>
       </c>
       <c r="E230">
         <v>0.0</v>
@@ -35882,10 +35882,10 @@
         <v>8.0</v>
       </c>
       <c r="H230">
-        <v>13.04</v>
+        <v>0.0</v>
       </c>
       <c r="I230">
-        <v>21508.879999999997</v>
+        <v>21542.96</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -35914,7 +35914,7 @@
         <v>0.0</v>
       </c>
       <c r="I231">
-        <v>21516.879999999997</v>
+        <v>21550.96</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -35943,7 +35943,7 @@
         <v>13.04</v>
       </c>
       <c r="I232">
-        <v>21511.839999999997</v>
+        <v>21545.92</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -35972,7 +35972,7 @@
         <v>13.04</v>
       </c>
       <c r="I233">
-        <v>21506.799999999996</v>
+        <v>21540.879999999997</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -35986,7 +35986,7 @@
         <v>17</v>
       </c>
       <c r="D234">
-        <v>11.327193821364332</v>
+        <v>13.04</v>
       </c>
       <c r="E234">
         <v>0.0</v>
@@ -35998,10 +35998,10 @@
         <v>8.0</v>
       </c>
       <c r="H234">
-        <v>11.327193821364332</v>
+        <v>13.04</v>
       </c>
       <c r="I234">
-        <v>21503.47280617863</v>
+        <v>21535.839999999997</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -36015,7 +36015,7 @@
         <v>18</v>
       </c>
       <c r="D235">
-        <v>13.04</v>
+        <v>0.0</v>
       </c>
       <c r="E235">
         <v>0.0</v>
@@ -36027,10 +36027,10 @@
         <v>8.0</v>
       </c>
       <c r="H235">
-        <v>13.04</v>
+        <v>0.0</v>
       </c>
       <c r="I235">
-        <v>21498.43280617863</v>
+        <v>21543.839999999997</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -36059,7 +36059,7 @@
         <v>0.0</v>
       </c>
       <c r="I236">
-        <v>21506.43280617863</v>
+        <v>21551.839999999997</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -36073,7 +36073,7 @@
         <v>20</v>
       </c>
       <c r="D237">
-        <v>0.0</v>
+        <v>13.04</v>
       </c>
       <c r="E237">
         <v>0.0</v>
@@ -36085,10 +36085,10 @@
         <v>8.0</v>
       </c>
       <c r="H237">
-        <v>0.0</v>
+        <v>13.04</v>
       </c>
       <c r="I237">
-        <v>21514.43280617863</v>
+        <v>21546.799999999996</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -36102,7 +36102,7 @@
         <v>21</v>
       </c>
       <c r="D238">
-        <v>0.0</v>
+        <v>13.04</v>
       </c>
       <c r="E238">
         <v>0.0</v>
@@ -36114,10 +36114,10 @@
         <v>8.0</v>
       </c>
       <c r="H238">
-        <v>0.0</v>
+        <v>13.04</v>
       </c>
       <c r="I238">
-        <v>21522.43280617863</v>
+        <v>21541.759999999995</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -36146,7 +36146,7 @@
         <v>13.04</v>
       </c>
       <c r="I239">
-        <v>21517.39280617863</v>
+        <v>21536.719999999994</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -36175,7 +36175,7 @@
         <v>0.0</v>
       </c>
       <c r="I240">
-        <v>21525.39280617863</v>
+        <v>21544.719999999994</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -36204,7 +36204,7 @@
         <v>0.0</v>
       </c>
       <c r="I241">
-        <v>21525.39280617863</v>
+        <v>21544.719999999994</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -36247,7 +36247,7 @@
         <v>2</v>
       </c>
       <c r="D243">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E243">
         <v>0.0</v>
@@ -36259,10 +36259,10 @@
         <v>0.0</v>
       </c>
       <c r="H243">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I243">
-        <v>32500.0</v>
+        <v>32492.0</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -36291,7 +36291,7 @@
         <v>0.0</v>
       </c>
       <c r="I244">
-        <v>32500.0</v>
+        <v>32492.0</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -36320,7 +36320,7 @@
         <v>0.0</v>
       </c>
       <c r="I245">
-        <v>32500.0</v>
+        <v>32492.0</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -36349,7 +36349,7 @@
         <v>0.0</v>
       </c>
       <c r="I246">
-        <v>32500.0</v>
+        <v>32492.0</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -36378,7 +36378,7 @@
         <v>0.0</v>
       </c>
       <c r="I247">
-        <v>32500.0</v>
+        <v>32492.0</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -36407,7 +36407,7 @@
         <v>8.0</v>
       </c>
       <c r="I248">
-        <v>32492.0</v>
+        <v>32484.0</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -36436,7 +36436,7 @@
         <v>8.0</v>
       </c>
       <c r="I249">
-        <v>32484.0</v>
+        <v>32476.0</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -36465,7 +36465,7 @@
         <v>0.0</v>
       </c>
       <c r="I250">
-        <v>32484.0</v>
+        <v>32476.0</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -36494,7 +36494,7 @@
         <v>8.0</v>
       </c>
       <c r="I251">
-        <v>32476.0</v>
+        <v>32468.0</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -36523,7 +36523,7 @@
         <v>8.0</v>
       </c>
       <c r="I252">
-        <v>32468.0</v>
+        <v>32460.0</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -36552,7 +36552,7 @@
         <v>8.0</v>
       </c>
       <c r="I253">
-        <v>32460.0</v>
+        <v>32452.0</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -36581,7 +36581,7 @@
         <v>8.0</v>
       </c>
       <c r="I254">
-        <v>32452.0</v>
+        <v>32444.0</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -36610,7 +36610,7 @@
         <v>8.0</v>
       </c>
       <c r="I255">
-        <v>32444.0</v>
+        <v>32436.0</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -36639,7 +36639,7 @@
         <v>8.0</v>
       </c>
       <c r="I256">
-        <v>32436.0</v>
+        <v>32428.0</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -36668,7 +36668,7 @@
         <v>8.0</v>
       </c>
       <c r="I257">
-        <v>32428.0</v>
+        <v>32420.0</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -36697,7 +36697,7 @@
         <v>8.0</v>
       </c>
       <c r="I258">
-        <v>32420.0</v>
+        <v>32412.0</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -36726,7 +36726,7 @@
         <v>8.0</v>
       </c>
       <c r="I259">
-        <v>32412.0</v>
+        <v>32404.0</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -36755,7 +36755,7 @@
         <v>8.0</v>
       </c>
       <c r="I260">
-        <v>32404.0</v>
+        <v>32396.0</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -36784,7 +36784,7 @@
         <v>8.0</v>
       </c>
       <c r="I261">
-        <v>32396.0</v>
+        <v>32388.0</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -36813,7 +36813,7 @@
         <v>8.0</v>
       </c>
       <c r="I262">
-        <v>32388.0</v>
+        <v>32380.0</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -36842,7 +36842,7 @@
         <v>8.0</v>
       </c>
       <c r="I263">
-        <v>32380.0</v>
+        <v>32372.0</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -36871,7 +36871,7 @@
         <v>8.0</v>
       </c>
       <c r="I264">
-        <v>32372.0</v>
+        <v>32364.0</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -36900,7 +36900,7 @@
         <v>0.0</v>
       </c>
       <c r="I265">
-        <v>32372.0</v>
+        <v>32364.0</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -38364,7 +38364,7 @@
         <v>3</v>
       </c>
       <c r="D316">
-        <v>-3.183231456205249e-12</v>
+        <v>0.0</v>
       </c>
       <c r="E316">
         <v>0.0</v>
@@ -38376,10 +38376,10 @@
         <v>0.0</v>
       </c>
       <c r="H316">
-        <v>-3.183231456205249e-12</v>
+        <v>0.0</v>
       </c>
       <c r="I316">
-        <v>3000.000000000003</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -38408,7 +38408,7 @@
         <v>0.0</v>
       </c>
       <c r="I317">
-        <v>3000.000000000003</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -38437,7 +38437,7 @@
         <v>0.0</v>
       </c>
       <c r="I318">
-        <v>3000.000000000003</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -38466,7 +38466,7 @@
         <v>0.0</v>
       </c>
       <c r="I319">
-        <v>3000.000000000003</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -38495,7 +38495,7 @@
         <v>0.0</v>
       </c>
       <c r="I320">
-        <v>3000.000000000003</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -38509,10 +38509,10 @@
         <v>8</v>
       </c>
       <c r="D321">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="E321">
-        <v>2987.000000000003</v>
+        <v>0.0</v>
       </c>
       <c r="F321">
         <v>0.0</v>
@@ -38521,10 +38521,10 @@
         <v>0.0</v>
       </c>
       <c r="H321">
-        <v>3000.000000000003</v>
+        <v>0.0</v>
       </c>
       <c r="I321">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -38541,7 +38541,7 @@
         <v>0.0</v>
       </c>
       <c r="E322">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="F322">
         <v>0.0</v>
@@ -38550,7 +38550,7 @@
         <v>0.0</v>
       </c>
       <c r="H322">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I322">
         <v>0.0</v>
@@ -39185,13 +39185,13 @@
         <v>0.0</v>
       </c>
       <c r="G344">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="H344">
         <v>0.0</v>
       </c>
       <c r="I344">
-        <v>2000.0</v>
+        <v>2102.12</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -39214,13 +39214,13 @@
         <v>0.0</v>
       </c>
       <c r="G345">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="H345">
         <v>80.2068302068302</v>
       </c>
       <c r="I345">
-        <v>1919.79316979317</v>
+        <v>2124.0331697931697</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -39234,7 +39234,7 @@
         <v>9</v>
       </c>
       <c r="D346">
-        <v>0.0</v>
+        <v>39.08596921596924</v>
       </c>
       <c r="E346">
         <v>0.0</v>
@@ -39246,10 +39246,10 @@
         <v>0.0</v>
       </c>
       <c r="H346">
-        <v>0.0</v>
+        <v>39.08596921596924</v>
       </c>
       <c r="I346">
-        <v>1919.79316979317</v>
+        <v>2084.9472005772004</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -39263,7 +39263,7 @@
         <v>10</v>
       </c>
       <c r="D347">
-        <v>80.2068302068302</v>
+        <v>0.0</v>
       </c>
       <c r="E347">
         <v>0.0</v>
@@ -39275,10 +39275,10 @@
         <v>102.12</v>
       </c>
       <c r="H347">
-        <v>80.2068302068302</v>
+        <v>0.0</v>
       </c>
       <c r="I347">
-        <v>1941.7063395863397</v>
+        <v>2187.0672005772003</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -39307,7 +39307,7 @@
         <v>80.2068302068302</v>
       </c>
       <c r="I348">
-        <v>1963.6195093795095</v>
+        <v>2208.98037037037</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -39321,7 +39321,7 @@
         <v>12</v>
       </c>
       <c r="D349">
-        <v>80.2068302068302</v>
+        <v>0.0</v>
       </c>
       <c r="E349">
         <v>0.0</v>
@@ -39333,10 +39333,10 @@
         <v>102.12</v>
       </c>
       <c r="H349">
-        <v>80.2068302068302</v>
+        <v>0.0</v>
       </c>
       <c r="I349">
-        <v>1985.5326791726793</v>
+        <v>2311.10037037037</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -39365,7 +39365,7 @@
         <v>80.2068302068302</v>
       </c>
       <c r="I350">
-        <v>2007.445848965849</v>
+        <v>2333.01354016354</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -39394,7 +39394,7 @@
         <v>0.0</v>
       </c>
       <c r="I351">
-        <v>2109.565848965849</v>
+        <v>2435.1335401635397</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -39423,7 +39423,7 @@
         <v>80.2068302068302</v>
       </c>
       <c r="I352">
-        <v>2131.479018759019</v>
+        <v>2457.0467099567095</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -39452,7 +39452,7 @@
         <v>80.2068302068302</v>
       </c>
       <c r="I353">
-        <v>2153.3921885521886</v>
+        <v>2478.9598797498793</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -39466,7 +39466,7 @@
         <v>17</v>
       </c>
       <c r="D354">
-        <v>0.0</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="E354">
         <v>0.0</v>
@@ -39475,13 +39475,13 @@
         <v>0.0</v>
       </c>
       <c r="G354">
-        <v>102.12</v>
+        <v>0.0</v>
       </c>
       <c r="H354">
-        <v>0.0</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="I354">
-        <v>2255.5121885521885</v>
+        <v>2398.753049543049</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -39495,7 +39495,7 @@
         <v>18</v>
       </c>
       <c r="D355">
-        <v>80.2068302068302</v>
+        <v>0.0</v>
       </c>
       <c r="E355">
         <v>0.0</v>
@@ -39507,10 +39507,10 @@
         <v>102.12</v>
       </c>
       <c r="H355">
-        <v>80.2068302068302</v>
+        <v>0.0</v>
       </c>
       <c r="I355">
-        <v>2277.4253583453583</v>
+        <v>2500.873049543049</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -39539,7 +39539,7 @@
         <v>80.2068302068302</v>
       </c>
       <c r="I356">
-        <v>2197.218528138528</v>
+        <v>2420.666219336219</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -39562,13 +39562,13 @@
         <v>0.0</v>
       </c>
       <c r="G357">
-        <v>102.12</v>
+        <v>0.0</v>
       </c>
       <c r="H357">
         <v>80.2068302068302</v>
       </c>
       <c r="I357">
-        <v>2219.131697931698</v>
+        <v>2340.459389129389</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -39582,7 +39582,7 @@
         <v>21</v>
       </c>
       <c r="D358">
-        <v>0.0</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="E358">
         <v>0.0</v>
@@ -39594,10 +39594,10 @@
         <v>102.12</v>
       </c>
       <c r="H358">
-        <v>0.0</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="I358">
-        <v>2321.251697931698</v>
+        <v>2362.3725589225587</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -39611,7 +39611,7 @@
         <v>22</v>
       </c>
       <c r="D359">
-        <v>0.0</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="E359">
         <v>0.0</v>
@@ -39620,13 +39620,13 @@
         <v>0.0</v>
       </c>
       <c r="G359">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="H359">
-        <v>0.0</v>
+        <v>80.2068302068302</v>
       </c>
       <c r="I359">
-        <v>2321.251697931698</v>
+        <v>2384.2857287157285</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -39649,13 +39649,13 @@
         <v>0.0</v>
       </c>
       <c r="G360">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="H360">
         <v>80.2068302068302</v>
       </c>
       <c r="I360">
-        <v>2241.044867724868</v>
+        <v>2406.1988985088983</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -39684,7 +39684,7 @@
         <v>0.0</v>
       </c>
       <c r="I361">
-        <v>2241.044867724868</v>
+        <v>2406.1988985088983</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -40432,13 +40432,13 @@
         <v>0.0</v>
       </c>
       <c r="G387">
-        <v>0.0</v>
+        <v>12.706159918512867</v>
       </c>
       <c r="H387">
         <v>0.0</v>
       </c>
       <c r="I387">
-        <v>500.0</v>
+        <v>512.7061599185129</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -40461,13 +40461,13 @@
         <v>0.0</v>
       </c>
       <c r="G388">
-        <v>0.0</v>
+        <v>3.0578231292516875</v>
       </c>
       <c r="H388">
         <v>0.0</v>
       </c>
       <c r="I388">
-        <v>500.0</v>
+        <v>515.7639830477646</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -40496,7 +40496,7 @@
         <v>0.0</v>
       </c>
       <c r="I389">
-        <v>500.0</v>
+        <v>515.7639830477646</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -40525,7 +40525,7 @@
         <v>0.0</v>
       </c>
       <c r="I390">
-        <v>500.0</v>
+        <v>515.7639830477646</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -40554,7 +40554,7 @@
         <v>0.0</v>
       </c>
       <c r="I391">
-        <v>500.0</v>
+        <v>515.7639830477646</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -40568,7 +40568,7 @@
         <v>7</v>
       </c>
       <c r="D392">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="E392">
         <v>0.0</v>
@@ -40577,13 +40577,13 @@
         <v>0.0</v>
       </c>
       <c r="G392">
-        <v>12.828790182739795</v>
+        <v>2.970451320672396</v>
       </c>
       <c r="H392">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="I392">
-        <v>512.8287901827398</v>
+        <v>416.61443436843695</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -40597,7 +40597,7 @@
         <v>8</v>
       </c>
       <c r="D393">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="E393">
         <v>0.0</v>
@@ -40606,13 +40606,13 @@
         <v>0.0</v>
       </c>
       <c r="G393">
-        <v>16.53012404961987</v>
+        <v>0.0</v>
       </c>
       <c r="H393">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="I393">
-        <v>529.3589142323597</v>
+        <v>314.49443436843694</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -40635,13 +40635,13 @@
         <v>0.0</v>
       </c>
       <c r="G394">
-        <v>24.17753768173941</v>
+        <v>0.0</v>
       </c>
       <c r="H394">
         <v>0.0</v>
       </c>
       <c r="I394">
-        <v>553.5364519140991</v>
+        <v>314.49443436843694</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -40664,13 +40664,13 @@
         <v>0.0</v>
       </c>
       <c r="G395">
-        <v>67.99565663976023</v>
+        <v>78.37893939393939</v>
       </c>
       <c r="H395">
         <v>102.12</v>
       </c>
       <c r="I395">
-        <v>519.4121085538593</v>
+        <v>290.7533737623763</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -40699,7 +40699,7 @@
         <v>102.12</v>
       </c>
       <c r="I396">
-        <v>495.6710479477987</v>
+        <v>267.0123131563157</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -40722,13 +40722,13 @@
         <v>0.0</v>
       </c>
       <c r="G397">
-        <v>46.62926496524534</v>
+        <v>78.37893939393939</v>
       </c>
       <c r="H397">
         <v>102.12</v>
       </c>
       <c r="I397">
-        <v>440.180312913044</v>
+        <v>243.2712525502551</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -40751,13 +40751,13 @@
         <v>0.0</v>
       </c>
       <c r="G398">
-        <v>73.9248422668731</v>
+        <v>78.37893939393939</v>
       </c>
       <c r="H398">
         <v>102.12</v>
       </c>
       <c r="I398">
-        <v>411.9851551799171</v>
+        <v>219.53019194419448</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -40786,7 +40786,7 @@
         <v>102.12</v>
       </c>
       <c r="I399">
-        <v>388.2440945738565</v>
+        <v>195.78913133813387</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -40815,7 +40815,7 @@
         <v>102.12</v>
       </c>
       <c r="I400">
-        <v>364.5030339677959</v>
+        <v>172.04807073207326</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -40844,7 +40844,7 @@
         <v>102.12</v>
       </c>
       <c r="I401">
-        <v>340.7619733617353</v>
+        <v>148.30701012601264</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -40858,7 +40858,7 @@
         <v>17</v>
       </c>
       <c r="D402">
-        <v>102.12</v>
+        <v>0.0</v>
       </c>
       <c r="E402">
         <v>0.0</v>
@@ -40870,10 +40870,10 @@
         <v>78.37893939393939</v>
       </c>
       <c r="H402">
-        <v>102.12</v>
+        <v>0.0</v>
       </c>
       <c r="I402">
-        <v>317.02091275567466</v>
+        <v>226.68594951995203</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -40896,13 +40896,13 @@
         <v>0.0</v>
       </c>
       <c r="G403">
-        <v>73.83071877235744</v>
+        <v>78.37893939393939</v>
       </c>
       <c r="H403">
         <v>102.12</v>
       </c>
       <c r="I403">
-        <v>288.7316315280321</v>
+        <v>202.94488891389142</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -40925,13 +40925,13 @@
         <v>0.0</v>
       </c>
       <c r="G404">
-        <v>34.62867421042489</v>
+        <v>29.09685766562518</v>
       </c>
       <c r="H404">
         <v>0.0</v>
       </c>
       <c r="I404">
-        <v>323.360305738457</v>
+        <v>232.0417465795166</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -40945,7 +40945,7 @@
         <v>20</v>
       </c>
       <c r="D405">
-        <v>102.12</v>
+        <v>0.0</v>
       </c>
       <c r="E405">
         <v>0.0</v>
@@ -40954,13 +40954,13 @@
         <v>0.0</v>
       </c>
       <c r="G405">
-        <v>22.885123200795476</v>
+        <v>28.76688808856875</v>
       </c>
       <c r="H405">
-        <v>102.12</v>
+        <v>0.0</v>
       </c>
       <c r="I405">
-        <v>244.12542893925246</v>
+        <v>260.80863466808535</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -40983,13 +40983,13 @@
         <v>0.0</v>
       </c>
       <c r="G406">
-        <v>59.005807474504934</v>
+        <v>11.224473789515798</v>
       </c>
       <c r="H406">
         <v>102.12</v>
       </c>
       <c r="I406">
-        <v>201.0112364137574</v>
+        <v>169.91310845760114</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -41003,7 +41003,7 @@
         <v>22</v>
       </c>
       <c r="D407">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="E407">
         <v>0.0</v>
@@ -41012,13 +41012,13 @@
         <v>0.0</v>
       </c>
       <c r="G407">
-        <v>42.48307571513453</v>
+        <v>4.025581750709449</v>
       </c>
       <c r="H407">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="I407">
-        <v>243.49431212889192</v>
+        <v>71.81869020831058</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -41032,7 +41032,7 @@
         <v>23</v>
       </c>
       <c r="D408">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="E408">
         <v>0.0</v>
@@ -41041,13 +41041,13 @@
         <v>0.0</v>
       </c>
       <c r="G408">
-        <v>48.66154686790543</v>
+        <v>40.325220337293196</v>
       </c>
       <c r="H408">
-        <v>0.0</v>
+        <v>102.12</v>
       </c>
       <c r="I408">
-        <v>292.15585899679735</v>
+        <v>10.023910545603776</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -41076,7 +41076,7 @@
         <v>0.0</v>
       </c>
       <c r="I409">
-        <v>292.15585899679735</v>
+        <v>10.023910545603776</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -41264,7 +41264,7 @@
         <v>7</v>
       </c>
       <c r="D416">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="E416">
         <v>0.0</v>
@@ -41273,10 +41273,10 @@
         <v>0.0</v>
       </c>
       <c r="G416">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="H416">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="I416">
         <v>0.0</v>
@@ -41293,7 +41293,7 @@
         <v>8</v>
       </c>
       <c r="D417">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="E417">
         <v>0.0</v>
@@ -41302,10 +41302,10 @@
         <v>0.0</v>
       </c>
       <c r="G417">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="H417">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="I417">
         <v>0.0</v>
@@ -41612,7 +41612,7 @@
         <v>19</v>
       </c>
       <c r="D428">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="E428">
         <v>0.0</v>
@@ -41621,10 +41621,10 @@
         <v>0.0</v>
       </c>
       <c r="G428">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="H428">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="I428">
         <v>0.0</v>
@@ -41641,7 +41641,7 @@
         <v>20</v>
       </c>
       <c r="D429">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="E429">
         <v>0.0</v>
@@ -41650,10 +41650,10 @@
         <v>0.0</v>
       </c>
       <c r="G429">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="H429">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="I429">
         <v>0.0</v>
@@ -41670,7 +41670,7 @@
         <v>21</v>
       </c>
       <c r="D430">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="E430">
         <v>0.0</v>
@@ -41679,10 +41679,10 @@
         <v>0.0</v>
       </c>
       <c r="G430">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="H430">
-        <v>20.018939393939394</v>
+        <v>10.06</v>
       </c>
       <c r="I430">
         <v>0.0</v>
@@ -41699,7 +41699,7 @@
         <v>22</v>
       </c>
       <c r="D431">
-        <v>20.018939393939394</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="E431">
         <v>0.0</v>
@@ -41708,10 +41708,10 @@
         <v>0.0</v>
       </c>
       <c r="G431">
-        <v>20.018939393939394</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="H431">
-        <v>20.018939393939394</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="I431">
         <v>0.0</v>
@@ -41815,7 +41815,7 @@
         <v>2</v>
       </c>
       <c r="D435">
-        <v>0.0</v>
+        <v>12.706159918512887</v>
       </c>
       <c r="E435">
         <v>0.0</v>
@@ -41824,13 +41824,13 @@
         <v>0.0</v>
       </c>
       <c r="G435">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="H435">
-        <v>0.0</v>
+        <v>12.706159918512887</v>
       </c>
       <c r="I435">
-        <v>18650.0</v>
+        <v>18730.663840081485</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -41844,7 +41844,7 @@
         <v>3</v>
       </c>
       <c r="D436">
-        <v>0.0</v>
+        <v>3.05782312925173</v>
       </c>
       <c r="E436">
         <v>0.0</v>
@@ -41856,10 +41856,10 @@
         <v>0.0</v>
       </c>
       <c r="H436">
-        <v>0.0</v>
+        <v>3.05782312925173</v>
       </c>
       <c r="I436">
-        <v>18650.0</v>
+        <v>18727.60601695223</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -41888,7 +41888,7 @@
         <v>0.0</v>
       </c>
       <c r="I437">
-        <v>18650.0</v>
+        <v>18727.60601695223</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -41917,7 +41917,7 @@
         <v>0.0</v>
       </c>
       <c r="I438">
-        <v>18650.0</v>
+        <v>18727.60601695223</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -41946,7 +41946,7 @@
         <v>0.0</v>
       </c>
       <c r="I439">
-        <v>18650.0</v>
+        <v>18727.60601695223</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -41960,7 +41960,7 @@
         <v>7</v>
       </c>
       <c r="D440">
-        <v>2.768790182739746</v>
+        <v>0.0</v>
       </c>
       <c r="E440">
         <v>0.0</v>
@@ -41972,10 +41972,10 @@
         <v>93.37</v>
       </c>
       <c r="H440">
-        <v>2.768790182739746</v>
+        <v>0.0</v>
       </c>
       <c r="I440">
-        <v>18740.601209817258</v>
+        <v>18820.97601695223</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -41989,7 +41989,7 @@
         <v>8</v>
       </c>
       <c r="D441">
-        <v>6.470124049619862</v>
+        <v>0.0</v>
       </c>
       <c r="E441">
         <v>0.0</v>
@@ -42001,10 +42001,10 @@
         <v>93.37</v>
       </c>
       <c r="H441">
-        <v>6.470124049619862</v>
+        <v>0.0</v>
       </c>
       <c r="I441">
-        <v>18827.501085767635</v>
+        <v>18914.34601695223</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -42018,7 +42018,7 @@
         <v>9</v>
       </c>
       <c r="D442">
-        <v>24.177537681739377</v>
+        <v>0.0</v>
       </c>
       <c r="E442">
         <v>0.0</v>
@@ -42027,13 +42027,13 @@
         <v>0.0</v>
       </c>
       <c r="G442">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="H442">
-        <v>24.177537681739377</v>
+        <v>0.0</v>
       </c>
       <c r="I442">
-        <v>18803.323548085897</v>
+        <v>19007.71601695223</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -42047,7 +42047,7 @@
         <v>10</v>
       </c>
       <c r="D443">
-        <v>47.97671724582088</v>
+        <v>58.36</v>
       </c>
       <c r="E443">
         <v>0.0</v>
@@ -42059,10 +42059,10 @@
         <v>93.37</v>
       </c>
       <c r="H443">
-        <v>47.97671724582088</v>
+        <v>58.36</v>
       </c>
       <c r="I443">
-        <v>18848.716830840076</v>
+        <v>19042.726016952227</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -42091,7 +42091,7 @@
         <v>58.36</v>
       </c>
       <c r="I444">
-        <v>18883.726830840074</v>
+        <v>19077.736016952225</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -42105,7 +42105,7 @@
         <v>12</v>
       </c>
       <c r="D445">
-        <v>26.610325571305932</v>
+        <v>58.36</v>
       </c>
       <c r="E445">
         <v>0.0</v>
@@ -42114,13 +42114,13 @@
         <v>0.0</v>
       </c>
       <c r="G445">
-        <v>93.37</v>
+        <v>0.0</v>
       </c>
       <c r="H445">
-        <v>26.610325571305932</v>
+        <v>58.36</v>
       </c>
       <c r="I445">
-        <v>18950.486505268767</v>
+        <v>19019.376016952225</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -42134,7 +42134,7 @@
         <v>13</v>
       </c>
       <c r="D446">
-        <v>53.90590287293368</v>
+        <v>58.36</v>
       </c>
       <c r="E446">
         <v>0.0</v>
@@ -42146,10 +42146,10 @@
         <v>93.37</v>
       </c>
       <c r="H446">
-        <v>53.90590287293368</v>
+        <v>58.36</v>
       </c>
       <c r="I446">
-        <v>18989.95060239583</v>
+        <v>19054.386016952223</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -42178,7 +42178,7 @@
         <v>58.36</v>
       </c>
       <c r="I447">
-        <v>18931.59060239583</v>
+        <v>18996.026016952223</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -42207,7 +42207,7 @@
         <v>58.36</v>
       </c>
       <c r="I448">
-        <v>18966.60060239583</v>
+        <v>19031.03601695222</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -42236,7 +42236,7 @@
         <v>58.36</v>
       </c>
       <c r="I449">
-        <v>19001.610602395827</v>
+        <v>19066.04601695222</v>
       </c>
     </row>
     <row r="450" spans="1:9">
@@ -42265,7 +42265,7 @@
         <v>58.36</v>
       </c>
       <c r="I450">
-        <v>19036.620602395826</v>
+        <v>19101.056016952218</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -42279,7 +42279,7 @@
         <v>18</v>
       </c>
       <c r="D451">
-        <v>53.81177937841805</v>
+        <v>58.36</v>
       </c>
       <c r="E451">
         <v>0.0</v>
@@ -42291,10 +42291,10 @@
         <v>93.37</v>
       </c>
       <c r="H451">
-        <v>53.81177937841805</v>
+        <v>58.36</v>
       </c>
       <c r="I451">
-        <v>19076.178823017406</v>
+        <v>19136.066016952216</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -42308,7 +42308,7 @@
         <v>19</v>
       </c>
       <c r="D452">
-        <v>14.609734816485528</v>
+        <v>19.03685766562517</v>
       </c>
       <c r="E452">
         <v>0.0</v>
@@ -42320,10 +42320,10 @@
         <v>93.37</v>
       </c>
       <c r="H452">
-        <v>14.609734816485528</v>
+        <v>19.03685766562517</v>
       </c>
       <c r="I452">
-        <v>19154.93908820092</v>
+        <v>19210.39915928659</v>
       </c>
     </row>
     <row r="453" spans="1:9">
@@ -42337,7 +42337,7 @@
         <v>20</v>
       </c>
       <c r="D453">
-        <v>2.866183806856086</v>
+        <v>18.70688808856876</v>
       </c>
       <c r="E453">
         <v>0.0</v>
@@ -42349,10 +42349,10 @@
         <v>93.37</v>
       </c>
       <c r="H453">
-        <v>2.866183806856086</v>
+        <v>18.70688808856876</v>
       </c>
       <c r="I453">
-        <v>19245.442904394065</v>
+        <v>19285.06227119802</v>
       </c>
     </row>
     <row r="454" spans="1:9">
@@ -42366,7 +42366,7 @@
         <v>21</v>
       </c>
       <c r="D454">
-        <v>38.98686808056553</v>
+        <v>1.164473789515796</v>
       </c>
       <c r="E454">
         <v>0.0</v>
@@ -42375,13 +42375,13 @@
         <v>0.0</v>
       </c>
       <c r="G454">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="H454">
-        <v>38.98686808056553</v>
+        <v>1.164473789515796</v>
       </c>
       <c r="I454">
-        <v>19206.4560363135</v>
+        <v>19377.267797408505</v>
       </c>
     </row>
     <row r="455" spans="1:9">
@@ -42395,7 +42395,7 @@
         <v>22</v>
       </c>
       <c r="D455">
-        <v>22.464136321195134</v>
+        <v>0.0</v>
       </c>
       <c r="E455">
         <v>0.0</v>
@@ -42407,10 +42407,10 @@
         <v>93.37</v>
       </c>
       <c r="H455">
-        <v>22.464136321195134</v>
+        <v>0.0</v>
       </c>
       <c r="I455">
-        <v>19277.361899992302</v>
+        <v>19470.637797408504</v>
       </c>
     </row>
     <row r="456" spans="1:9">
@@ -42424,7 +42424,7 @@
         <v>23</v>
       </c>
       <c r="D456">
-        <v>38.60154686790545</v>
+        <v>30.265220337293194</v>
       </c>
       <c r="E456">
         <v>0.0</v>
@@ -42436,10 +42436,10 @@
         <v>93.37</v>
       </c>
       <c r="H456">
-        <v>38.60154686790545</v>
+        <v>30.265220337293194</v>
       </c>
       <c r="I456">
-        <v>19332.130353124394</v>
+        <v>19533.74257707121</v>
       </c>
     </row>
     <row r="457" spans="1:9">
@@ -42468,7 +42468,7 @@
         <v>0.0</v>
       </c>
       <c r="I457">
-        <v>19332.130353124394</v>
+        <v>19533.74257707121</v>
       </c>
     </row>
     <row r="458" spans="1:9">
@@ -42511,7 +42511,7 @@
         <v>2</v>
       </c>
       <c r="D459">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="E459">
         <v>0.0</v>
@@ -42520,13 +42520,13 @@
         <v>0.0</v>
       </c>
       <c r="G459">
-        <v>0.0</v>
+        <v>30.06</v>
       </c>
       <c r="H459">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="I459">
-        <v>291000.0</v>
+        <v>290936.69</v>
       </c>
     </row>
     <row r="460" spans="1:9">
@@ -42555,7 +42555,7 @@
         <v>0.0</v>
       </c>
       <c r="I460">
-        <v>291000.0</v>
+        <v>290936.69</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -42584,7 +42584,7 @@
         <v>0.0</v>
       </c>
       <c r="I461">
-        <v>291000.0</v>
+        <v>290936.69</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -42613,7 +42613,7 @@
         <v>0.0</v>
       </c>
       <c r="I462">
-        <v>291000.0</v>
+        <v>290936.69</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -42642,7 +42642,7 @@
         <v>0.0</v>
       </c>
       <c r="I463">
-        <v>291000.0</v>
+        <v>290936.69</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -42671,7 +42671,7 @@
         <v>93.37</v>
       </c>
       <c r="I464">
-        <v>290936.69</v>
+        <v>290873.38</v>
       </c>
     </row>
     <row r="465" spans="1:9">
@@ -42700,7 +42700,7 @@
         <v>93.37</v>
       </c>
       <c r="I465">
-        <v>290873.38</v>
+        <v>290810.07</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -42714,7 +42714,7 @@
         <v>9</v>
       </c>
       <c r="D466">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="E466">
         <v>0.0</v>
@@ -42726,10 +42726,10 @@
         <v>0.0</v>
       </c>
       <c r="H466">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="I466">
-        <v>290873.38</v>
+        <v>290716.7</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -42758,7 +42758,7 @@
         <v>93.37</v>
       </c>
       <c r="I467">
-        <v>290810.07</v>
+        <v>290653.39</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -42787,7 +42787,7 @@
         <v>93.37</v>
       </c>
       <c r="I468">
-        <v>290746.76</v>
+        <v>290590.08</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -42801,7 +42801,7 @@
         <v>12</v>
       </c>
       <c r="D469">
-        <v>93.37</v>
+        <v>0.0</v>
       </c>
       <c r="E469">
         <v>0.0</v>
@@ -42813,10 +42813,10 @@
         <v>30.06</v>
       </c>
       <c r="H469">
-        <v>93.37</v>
+        <v>0.0</v>
       </c>
       <c r="I469">
-        <v>290683.45</v>
+        <v>290620.14</v>
       </c>
     </row>
     <row r="470" spans="1:9">
@@ -42845,7 +42845,7 @@
         <v>93.37</v>
       </c>
       <c r="I470">
-        <v>290620.14</v>
+        <v>290556.83</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -42874,7 +42874,7 @@
         <v>0.0</v>
       </c>
       <c r="I471">
-        <v>290650.2</v>
+        <v>290586.89</v>
       </c>
     </row>
     <row r="472" spans="1:9">
@@ -42903,7 +42903,7 @@
         <v>93.37</v>
       </c>
       <c r="I472">
-        <v>290586.89</v>
+        <v>290523.58</v>
       </c>
     </row>
     <row r="473" spans="1:9">
@@ -42932,7 +42932,7 @@
         <v>93.37</v>
       </c>
       <c r="I473">
-        <v>290523.58</v>
+        <v>290460.27</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -42961,7 +42961,7 @@
         <v>93.37</v>
       </c>
       <c r="I474">
-        <v>290460.27</v>
+        <v>290396.96</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -42990,7 +42990,7 @@
         <v>93.37</v>
       </c>
       <c r="I475">
-        <v>290396.96</v>
+        <v>290333.65</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -43019,7 +43019,7 @@
         <v>93.37</v>
       </c>
       <c r="I476">
-        <v>290333.65</v>
+        <v>290270.34</v>
       </c>
     </row>
     <row r="477" spans="1:9">
@@ -43048,7 +43048,7 @@
         <v>93.37</v>
       </c>
       <c r="I477">
-        <v>290270.34</v>
+        <v>290207.03</v>
       </c>
     </row>
     <row r="478" spans="1:9">
@@ -43062,7 +43062,7 @@
         <v>21</v>
       </c>
       <c r="D478">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="E478">
         <v>0.0</v>
@@ -43074,10 +43074,10 @@
         <v>30.06</v>
       </c>
       <c r="H478">
-        <v>0.0</v>
+        <v>93.37</v>
       </c>
       <c r="I478">
-        <v>290300.4</v>
+        <v>290143.72000000003</v>
       </c>
     </row>
     <row r="479" spans="1:9">
@@ -43106,7 +43106,7 @@
         <v>93.37</v>
       </c>
       <c r="I479">
-        <v>290237.09</v>
+        <v>290080.41000000003</v>
       </c>
     </row>
     <row r="480" spans="1:9">
@@ -43135,7 +43135,7 @@
         <v>93.37</v>
       </c>
       <c r="I480">
-        <v>290173.78</v>
+        <v>290017.10000000003</v>
       </c>
     </row>
     <row r="481" spans="1:9">
@@ -43164,7 +43164,7 @@
         <v>0.0</v>
       </c>
       <c r="I481">
-        <v>290173.78</v>
+        <v>290017.10000000003</v>
       </c>
     </row>
     <row r="482" spans="1:9">
@@ -43207,7 +43207,7 @@
         <v>2</v>
       </c>
       <c r="D483">
-        <v>0.0</v>
+        <v>30.06</v>
       </c>
       <c r="E483">
         <v>0.0</v>
@@ -43219,10 +43219,10 @@
         <v>0.0</v>
       </c>
       <c r="H483">
-        <v>0.0</v>
+        <v>30.06</v>
       </c>
       <c r="I483">
-        <v>93500.0</v>
+        <v>93469.94</v>
       </c>
     </row>
     <row r="484" spans="1:9">
@@ -43251,7 +43251,7 @@
         <v>0.0</v>
       </c>
       <c r="I484">
-        <v>93500.0</v>
+        <v>93469.94</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -43280,7 +43280,7 @@
         <v>0.0</v>
       </c>
       <c r="I485">
-        <v>93500.0</v>
+        <v>93469.94</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -43309,7 +43309,7 @@
         <v>0.0</v>
       </c>
       <c r="I486">
-        <v>93500.0</v>
+        <v>93469.94</v>
       </c>
     </row>
     <row r="487" spans="1:9">
@@ -43338,7 +43338,7 @@
         <v>0.0</v>
       </c>
       <c r="I487">
-        <v>93500.0</v>
+        <v>93469.94</v>
       </c>
     </row>
     <row r="488" spans="1:9">
@@ -43367,7 +43367,7 @@
         <v>30.06</v>
       </c>
       <c r="I488">
-        <v>93469.94</v>
+        <v>93439.88</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -43396,7 +43396,7 @@
         <v>30.06</v>
       </c>
       <c r="I489">
-        <v>93439.88</v>
+        <v>93409.82</v>
       </c>
     </row>
     <row r="490" spans="1:9">
@@ -43425,7 +43425,7 @@
         <v>0.0</v>
       </c>
       <c r="I490">
-        <v>93439.88</v>
+        <v>93409.82</v>
       </c>
     </row>
     <row r="491" spans="1:9">
@@ -43454,7 +43454,7 @@
         <v>30.06</v>
       </c>
       <c r="I491">
-        <v>93409.82</v>
+        <v>93379.76000000001</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -43483,7 +43483,7 @@
         <v>30.06</v>
       </c>
       <c r="I492">
-        <v>93379.76000000001</v>
+        <v>93349.70000000001</v>
       </c>
     </row>
     <row r="493" spans="1:9">
@@ -43512,7 +43512,7 @@
         <v>30.06</v>
       </c>
       <c r="I493">
-        <v>93349.70000000001</v>
+        <v>93319.64000000001</v>
       </c>
     </row>
     <row r="494" spans="1:9">
@@ -43541,7 +43541,7 @@
         <v>30.06</v>
       </c>
       <c r="I494">
-        <v>93319.64000000001</v>
+        <v>93289.58000000002</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -43570,7 +43570,7 @@
         <v>30.06</v>
       </c>
       <c r="I495">
-        <v>93289.58000000002</v>
+        <v>93259.52000000002</v>
       </c>
     </row>
     <row r="496" spans="1:9">
@@ -43599,7 +43599,7 @@
         <v>30.06</v>
       </c>
       <c r="I496">
-        <v>93259.52000000002</v>
+        <v>93229.46000000002</v>
       </c>
     </row>
     <row r="497" spans="1:9">
@@ -43628,7 +43628,7 @@
         <v>30.06</v>
       </c>
       <c r="I497">
-        <v>93229.46000000002</v>
+        <v>93199.40000000002</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -43657,7 +43657,7 @@
         <v>30.06</v>
       </c>
       <c r="I498">
-        <v>93199.40000000002</v>
+        <v>93169.34000000003</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -43686,7 +43686,7 @@
         <v>30.06</v>
       </c>
       <c r="I499">
-        <v>93169.34000000003</v>
+        <v>93139.28000000003</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -43715,7 +43715,7 @@
         <v>30.06</v>
       </c>
       <c r="I500">
-        <v>93139.28000000003</v>
+        <v>93109.22000000003</v>
       </c>
     </row>
     <row r="501" spans="1:9">
@@ -43744,7 +43744,7 @@
         <v>30.06</v>
       </c>
       <c r="I501">
-        <v>93109.22000000003</v>
+        <v>93079.16000000003</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -43773,7 +43773,7 @@
         <v>30.06</v>
       </c>
       <c r="I502">
-        <v>93079.16000000003</v>
+        <v>93049.10000000003</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -43802,7 +43802,7 @@
         <v>30.06</v>
       </c>
       <c r="I503">
-        <v>93049.10000000003</v>
+        <v>93019.04000000004</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -43831,7 +43831,7 @@
         <v>30.06</v>
       </c>
       <c r="I504">
-        <v>93019.04000000004</v>
+        <v>92988.98000000004</v>
       </c>
     </row>
     <row r="505" spans="1:9">
@@ -43860,7 +43860,7 @@
         <v>0.0</v>
       </c>
       <c r="I505">
-        <v>93019.04000000004</v>
+        <v>92988.98000000004</v>
       </c>
     </row>
     <row r="506" spans="1:9">
@@ -44048,7 +44048,7 @@
         <v>7</v>
       </c>
       <c r="D512">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="E512">
         <v>0.0</v>
@@ -44057,10 +44057,10 @@
         <v>0.0</v>
       </c>
       <c r="G512">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="H512">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="I512">
         <v>0.0</v>
@@ -44077,7 +44077,7 @@
         <v>8</v>
       </c>
       <c r="D513">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="E513">
         <v>0.0</v>
@@ -44086,10 +44086,10 @@
         <v>0.0</v>
       </c>
       <c r="G513">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="H513">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="I513">
         <v>0.0</v>
@@ -44135,7 +44135,7 @@
         <v>10</v>
       </c>
       <c r="D515">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E515">
         <v>0.0</v>
@@ -44144,10 +44144,10 @@
         <v>0.0</v>
       </c>
       <c r="G515">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H515">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I515">
         <v>0.0</v>
@@ -44164,7 +44164,7 @@
         <v>11</v>
       </c>
       <c r="D516">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E516">
         <v>0.0</v>
@@ -44173,10 +44173,10 @@
         <v>0.0</v>
       </c>
       <c r="G516">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H516">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I516">
         <v>0.0</v>
@@ -44193,7 +44193,7 @@
         <v>12</v>
       </c>
       <c r="D517">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E517">
         <v>0.0</v>
@@ -44202,10 +44202,10 @@
         <v>0.0</v>
       </c>
       <c r="G517">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H517">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I517">
         <v>0.0</v>
@@ -44222,7 +44222,7 @@
         <v>13</v>
       </c>
       <c r="D518">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E518">
         <v>0.0</v>
@@ -44231,10 +44231,10 @@
         <v>0.0</v>
       </c>
       <c r="G518">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H518">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I518">
         <v>0.0</v>
@@ -44280,7 +44280,7 @@
         <v>15</v>
       </c>
       <c r="D520">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E520">
         <v>0.0</v>
@@ -44289,10 +44289,10 @@
         <v>0.0</v>
       </c>
       <c r="G520">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H520">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I520">
         <v>0.0</v>
@@ -44396,7 +44396,7 @@
         <v>19</v>
       </c>
       <c r="D524">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E524">
         <v>0.0</v>
@@ -44405,10 +44405,10 @@
         <v>0.0</v>
       </c>
       <c r="G524">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H524">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I524">
         <v>0.0</v>
@@ -44425,7 +44425,7 @@
         <v>20</v>
       </c>
       <c r="D525">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E525">
         <v>0.0</v>
@@ -44434,10 +44434,10 @@
         <v>0.0</v>
       </c>
       <c r="G525">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H525">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I525">
         <v>0.0</v>
@@ -44454,7 +44454,7 @@
         <v>21</v>
       </c>
       <c r="D526">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E526">
         <v>0.0</v>
@@ -44463,10 +44463,10 @@
         <v>0.0</v>
       </c>
       <c r="G526">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="H526">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I526">
         <v>0.0</v>
@@ -44483,7 +44483,7 @@
         <v>22</v>
       </c>
       <c r="D527">
-        <v>0.0</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="E527">
         <v>0.0</v>
@@ -44492,10 +44492,10 @@
         <v>0.0</v>
       </c>
       <c r="G527">
-        <v>0.0</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="H527">
-        <v>0.0</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="I527">
         <v>0.0</v>
@@ -44831,10 +44831,10 @@
         <v>10</v>
       </c>
       <c r="D539">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="E539">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="F539">
         <v>0.0</v>
@@ -44843,10 +44843,10 @@
         <v>0.0</v>
       </c>
       <c r="H539">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I539">
-        <v>25979.98106060606</v>
+        <v>25990.04106060606</v>
       </c>
     </row>
     <row r="540" spans="1:9">
@@ -44860,10 +44860,10 @@
         <v>11</v>
       </c>
       <c r="D540">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="E540">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F540">
         <v>0.0</v>
@@ -44872,10 +44872,10 @@
         <v>0.0</v>
       </c>
       <c r="H540">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I540">
-        <v>25959.96212121212</v>
+        <v>25980.082121212123</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -44889,10 +44889,10 @@
         <v>12</v>
       </c>
       <c r="D541">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="E541">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="F541">
         <v>0.0</v>
@@ -44901,10 +44901,10 @@
         <v>0.0</v>
       </c>
       <c r="H541">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I541">
-        <v>25939.94318181818</v>
+        <v>25970.123181818184</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -44918,10 +44918,10 @@
         <v>13</v>
       </c>
       <c r="D542">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="E542">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F542">
         <v>0.0</v>
@@ -44930,10 +44930,10 @@
         <v>0.0</v>
       </c>
       <c r="H542">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I542">
-        <v>25919.92424242424</v>
+        <v>25960.164242424245</v>
       </c>
     </row>
     <row r="543" spans="1:9">
@@ -44962,7 +44962,7 @@
         <v>9.958939393939394</v>
       </c>
       <c r="I543">
-        <v>25909.9653030303</v>
+        <v>25950.205303030307</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -44976,10 +44976,10 @@
         <v>15</v>
       </c>
       <c r="D544">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="E544">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="F544">
         <v>0.0</v>
@@ -44988,10 +44988,10 @@
         <v>0.0</v>
       </c>
       <c r="H544">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I544">
-        <v>25889.94636363636</v>
+        <v>25940.24636363637</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -45020,7 +45020,7 @@
         <v>9.958939393939394</v>
       </c>
       <c r="I545">
-        <v>25879.987424242423</v>
+        <v>25930.28742424243</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -45034,10 +45034,10 @@
         <v>17</v>
       </c>
       <c r="D546">
+        <v>0.0</v>
+      </c>
+      <c r="E546">
         <v>9.958939393939394</v>
-      </c>
-      <c r="E546">
-        <v>0.0</v>
       </c>
       <c r="F546">
         <v>0.0</v>
@@ -45049,7 +45049,7 @@
         <v>9.958939393939394</v>
       </c>
       <c r="I546">
-        <v>25870.028484848484</v>
+        <v>25920.32848484849</v>
       </c>
     </row>
     <row r="547" spans="1:9">
@@ -45078,7 +45078,7 @@
         <v>9.958939393939394</v>
       </c>
       <c r="I547">
-        <v>25860.069545454546</v>
+        <v>25910.369545454552</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -45095,7 +45095,7 @@
         <v>0.0</v>
       </c>
       <c r="E548">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F548">
         <v>0.0</v>
@@ -45104,10 +45104,10 @@
         <v>0.0</v>
       </c>
       <c r="H548">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I548">
-        <v>25840.050606060606</v>
+        <v>25910.369545454552</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -45124,7 +45124,7 @@
         <v>0.0</v>
       </c>
       <c r="E549">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F549">
         <v>0.0</v>
@@ -45133,10 +45133,10 @@
         <v>0.0</v>
       </c>
       <c r="H549">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I549">
-        <v>25820.031666666666</v>
+        <v>25910.369545454552</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -45153,7 +45153,7 @@
         <v>0.0</v>
       </c>
       <c r="E550">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F550">
         <v>0.0</v>
@@ -45162,10 +45162,10 @@
         <v>0.0</v>
       </c>
       <c r="H550">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I550">
-        <v>25800.012727272726</v>
+        <v>25910.369545454552</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -45179,7 +45179,7 @@
         <v>22</v>
       </c>
       <c r="D551">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="E551">
         <v>0.0</v>
@@ -45191,10 +45191,10 @@
         <v>0.0</v>
       </c>
       <c r="H551">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I551">
-        <v>25779.993787878786</v>
+        <v>25910.369545454552</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -45223,7 +45223,7 @@
         <v>0.0</v>
       </c>
       <c r="I552">
-        <v>25779.993787878786</v>
+        <v>25910.369545454552</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -45252,7 +45252,7 @@
         <v>0.0</v>
       </c>
       <c r="I553">
-        <v>25779.993787878786</v>
+        <v>25910.369545454552</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -45443,7 +45443,7 @@
         <v>0.0</v>
       </c>
       <c r="E560">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="F560">
         <v>0.0</v>
@@ -45452,10 +45452,10 @@
         <v>0.0</v>
       </c>
       <c r="H560">
-        <v>10.06</v>
+        <v>2.9704513206723817</v>
       </c>
       <c r="I560">
-        <v>24989.94</v>
+        <v>24997.02954867933</v>
       </c>
     </row>
     <row r="561" spans="1:9">
@@ -45469,7 +45469,7 @@
         <v>8</v>
       </c>
       <c r="D561">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="E561">
         <v>0.0</v>
@@ -45481,10 +45481,10 @@
         <v>0.0</v>
       </c>
       <c r="H561">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="I561">
-        <v>24979.879999999997</v>
+        <v>24997.02954867933</v>
       </c>
     </row>
     <row r="562" spans="1:9">
@@ -45513,7 +45513,7 @@
         <v>0.0</v>
       </c>
       <c r="I562">
-        <v>24979.879999999997</v>
+        <v>24997.02954867933</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -45533,16 +45533,16 @@
         <v>0.0</v>
       </c>
       <c r="F563">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="G563">
         <v>0.0</v>
       </c>
       <c r="H563">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I563">
-        <v>24979.879999999997</v>
+        <v>24986.969548679328</v>
       </c>
     </row>
     <row r="564" spans="1:9">
@@ -45562,16 +45562,16 @@
         <v>0.0</v>
       </c>
       <c r="F564">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="G564">
         <v>0.0</v>
       </c>
       <c r="H564">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I564">
-        <v>24979.879999999997</v>
+        <v>24976.909548679327</v>
       </c>
     </row>
     <row r="565" spans="1:9">
@@ -45585,7 +45585,7 @@
         <v>12</v>
       </c>
       <c r="D565">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E565">
         <v>0.0</v>
@@ -45597,10 +45597,10 @@
         <v>0.0</v>
       </c>
       <c r="H565">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I565">
-        <v>24979.879999999997</v>
+        <v>24966.849548679325</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -45617,7 +45617,7 @@
         <v>0.0</v>
       </c>
       <c r="E566">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="F566">
         <v>0.0</v>
@@ -45626,10 +45626,10 @@
         <v>0.0</v>
       </c>
       <c r="H566">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I566">
-        <v>24979.879999999997</v>
+        <v>24956.789548679324</v>
       </c>
     </row>
     <row r="567" spans="1:9">
@@ -45643,10 +45643,10 @@
         <v>14</v>
       </c>
       <c r="D567">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E567">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="F567">
         <v>0.0</v>
@@ -45658,7 +45658,7 @@
         <v>10.06</v>
       </c>
       <c r="I567">
-        <v>24969.819999999996</v>
+        <v>24946.729548679323</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -45672,7 +45672,7 @@
         <v>15</v>
       </c>
       <c r="D568">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E568">
         <v>0.0</v>
@@ -45684,10 +45684,10 @@
         <v>0.0</v>
       </c>
       <c r="H568">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I568">
-        <v>24969.819999999996</v>
+        <v>24936.66954867932</v>
       </c>
     </row>
     <row r="569" spans="1:9">
@@ -45704,10 +45704,10 @@
         <v>0.0</v>
       </c>
       <c r="E569">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="F569">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="G569">
         <v>0.0</v>
@@ -45716,7 +45716,7 @@
         <v>10.06</v>
       </c>
       <c r="I569">
-        <v>24959.759999999995</v>
+        <v>24926.60954867932</v>
       </c>
     </row>
     <row r="570" spans="1:9">
@@ -45733,10 +45733,10 @@
         <v>0.0</v>
       </c>
       <c r="E570">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="F570">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="G570">
         <v>0.0</v>
@@ -45745,7 +45745,7 @@
         <v>10.06</v>
       </c>
       <c r="I570">
-        <v>24949.699999999993</v>
+        <v>24916.54954867932</v>
       </c>
     </row>
     <row r="571" spans="1:9">
@@ -45759,13 +45759,13 @@
         <v>18</v>
       </c>
       <c r="D571">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E571">
         <v>0.0</v>
       </c>
       <c r="F571">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="G571">
         <v>0.0</v>
@@ -45774,7 +45774,7 @@
         <v>10.06</v>
       </c>
       <c r="I571">
-        <v>24939.639999999992</v>
+        <v>24906.489548679318</v>
       </c>
     </row>
     <row r="572" spans="1:9">
@@ -45788,7 +45788,7 @@
         <v>19</v>
       </c>
       <c r="D572">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E572">
         <v>0.0</v>
@@ -45800,10 +45800,10 @@
         <v>0.0</v>
       </c>
       <c r="H572">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I572">
-        <v>24939.639999999992</v>
+        <v>24896.429548679316</v>
       </c>
     </row>
     <row r="573" spans="1:9">
@@ -45817,7 +45817,7 @@
         <v>20</v>
       </c>
       <c r="D573">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E573">
         <v>0.0</v>
@@ -45829,10 +45829,10 @@
         <v>0.0</v>
       </c>
       <c r="H573">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I573">
-        <v>24939.639999999992</v>
+        <v>24886.369548679315</v>
       </c>
     </row>
     <row r="574" spans="1:9">
@@ -45846,7 +45846,7 @@
         <v>21</v>
       </c>
       <c r="D574">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E574">
         <v>0.0</v>
@@ -45858,10 +45858,10 @@
         <v>0.0</v>
       </c>
       <c r="H574">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="I574">
-        <v>24939.639999999992</v>
+        <v>24876.309548679314</v>
       </c>
     </row>
     <row r="575" spans="1:9">
@@ -45875,7 +45875,7 @@
         <v>22</v>
       </c>
       <c r="D575">
-        <v>0.0</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="E575">
         <v>0.0</v>
@@ -45887,10 +45887,10 @@
         <v>0.0</v>
       </c>
       <c r="H575">
-        <v>0.0</v>
+        <v>4.025581750709443</v>
       </c>
       <c r="I575">
-        <v>24939.639999999992</v>
+        <v>24872.283966928604</v>
       </c>
     </row>
     <row r="576" spans="1:9">
@@ -45904,13 +45904,13 @@
         <v>23</v>
       </c>
       <c r="D576">
-        <v>0.0</v>
+        <v>10.06</v>
       </c>
       <c r="E576">
         <v>0.0</v>
       </c>
       <c r="F576">
-        <v>10.06</v>
+        <v>0.0</v>
       </c>
       <c r="G576">
         <v>0.0</v>
@@ -45919,7 +45919,7 @@
         <v>10.06</v>
       </c>
       <c r="I576">
-        <v>24929.57999999999</v>
+        <v>24862.223966928603</v>
       </c>
     </row>
     <row r="577" spans="1:9">
@@ -45948,7 +45948,7 @@
         <v>0.0</v>
       </c>
       <c r="I577">
-        <v>24929.57999999999</v>
+        <v>24862.223966928603</v>
       </c>
     </row>
     <row r="578" spans="1:9">
@@ -46223,19 +46223,19 @@
         <v>10</v>
       </c>
       <c r="D587">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="E587">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="F587">
         <v>0.0</v>
       </c>
       <c r="G587">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="H587">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I587">
         <v>0.0</v>
@@ -46255,16 +46255,16 @@
         <v>0.0</v>
       </c>
       <c r="E588">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="F588">
         <v>0.0</v>
       </c>
       <c r="G588">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="H588">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I588">
         <v>0.0</v>
@@ -46281,7 +46281,7 @@
         <v>12</v>
       </c>
       <c r="D589">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="E589">
         <v>0.0</v>
@@ -46290,10 +46290,10 @@
         <v>0.0</v>
       </c>
       <c r="G589">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="H589">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I589">
         <v>0.0</v>
@@ -46310,19 +46310,19 @@
         <v>13</v>
       </c>
       <c r="D590">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="E590">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F590">
         <v>0.0</v>
       </c>
       <c r="G590">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="H590">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I590">
         <v>0.0</v>
@@ -46368,7 +46368,7 @@
         <v>15</v>
       </c>
       <c r="D592">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="E592">
         <v>0.0</v>
@@ -46377,10 +46377,10 @@
         <v>0.0</v>
       </c>
       <c r="G592">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="H592">
-        <v>20.018939393939394</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="I592">
         <v>0.0</v>
@@ -46397,10 +46397,10 @@
         <v>16</v>
       </c>
       <c r="D593">
-        <v>0.0</v>
+        <v>9.958939393939394</v>
       </c>
       <c r="E593">
-        <v>9.958939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F593">
         <v>0.0</v>
@@ -46455,10 +46455,10 @@
         <v>18</v>
       </c>
       <c r="D595">
+        <v>0.0</v>
+      </c>
+      <c r="E595">
         <v>9.958939393939394</v>
-      </c>
-      <c r="E595">
-        <v>0.0</v>
       </c>
       <c r="F595">
         <v>0.0</v>
@@ -46487,16 +46487,16 @@
         <v>0.0</v>
       </c>
       <c r="E596">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F596">
         <v>0.0</v>
       </c>
       <c r="G596">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="H596">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I596">
         <v>0.0</v>
@@ -46516,16 +46516,16 @@
         <v>0.0</v>
       </c>
       <c r="E597">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F597">
         <v>0.0</v>
       </c>
       <c r="G597">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="H597">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I597">
         <v>0.0</v>
@@ -46545,16 +46545,16 @@
         <v>0.0</v>
       </c>
       <c r="E598">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F598">
         <v>0.0</v>
       </c>
       <c r="G598">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="H598">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I598">
         <v>0.0</v>
@@ -46574,16 +46574,16 @@
         <v>0.0</v>
       </c>
       <c r="E599">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F599">
         <v>0.0</v>
       </c>
       <c r="G599">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="H599">
-        <v>20.018939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="I599">
         <v>0.0</v>
